--- a/Data/OurData3.xlsx
+++ b/Data/OurData3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F16C1-B0DD-BB4D-8F8F-F8887FE8A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760082C9-4F94-884C-ABFC-FDAE3990B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" firstSheet="1" activeTab="7" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="1" activeTab="10" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="342">
   <si>
     <t>ID</t>
   </si>
@@ -1135,6 +1135,9 @@
   </si>
   <si>
     <t>BRAGE-T &gt; BRAGE</t>
+  </si>
+  <si>
+    <t>Dummy pipe gjoa</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1495,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1587,6 +1590,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1599,15 +1611,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1990,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2150,7 +2155,7 @@
         <v>79</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H61" si="1">"LINESTRING(" &amp; O3 &amp; "," &amp; Q3 &amp; "," &amp; P3 &amp; ")"</f>
+        <f t="shared" ref="H3:H62" si="1">"LINESTRING(" &amp; O3 &amp; "," &amp; Q3 &amp; "," &amp; P3 &amp; ")"</f>
         <v>LINESTRING(6.44125800000006 64.233255,7.11614205264601 64.2919112956052,7.79102610529196 64.3505675912103)</v>
       </c>
       <c r="I3" s="1">
@@ -5535,6 +5540,53 @@
       <c r="Q61" t="str">
         <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,4), INDEX(Nodes!$A$3:$E$64,Arcs!L61,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,5), INDEX(Nodes!$A$3:$E$64,Arcs!L61,5)), ",", ".")</f>
         <v>2.12637048424656 59.7330186621066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LINESTRING(3.90498979266736 61.3301937762874,2.80258945333371 61.1761061046437,1.70018911400007 61.022018433)</v>
+      </c>
+      <c r="I62" s="42">
+        <v>18.2</v>
+      </c>
+      <c r="K62" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F62,Nodes!$B:$B,0))</f>
+        <v>27</v>
+      </c>
+      <c r="L62" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G62,Nodes!$B:$B,0))</f>
+        <v>24</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O62" t="str" cm="1">
+        <f t="array" ref="O62">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), ",",".")</f>
+        <v>3.90498979266736 61.3301937762874</v>
+      </c>
+      <c r="P62" t="str" cm="1">
+        <f t="array" ref="P62">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!L62,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!L62,5), ",",".")</f>
+        <v>1.70018911400007 61.022018433</v>
+      </c>
+      <c r="Q62" t="str">
+        <f>SUBSTITUTE(AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4), INDEX(Nodes!$A$3:$E$64,Arcs!L62,4)) &amp; " " &amp; AVERAGE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), INDEX(Nodes!$A$3:$E$64,Arcs!L62,5)), ",", ".")</f>
+        <v>2.80258945333371 61.1761061046437</v>
       </c>
     </row>
   </sheetData>
@@ -5548,8 +5600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5595,7 +5647,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -5613,24 +5665,16 @@
         <v>75</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>188</v>
-      </c>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
       <c r="D4" s="26" t="s">
         <v>77</v>
       </c>
@@ -5688,7 +5732,7 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(IF(ISNUMBER(VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)),VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)))</f>
-        <v>16.798879452054791</v>
+        <v>8.8860904109589036</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(IF(ISNUMBER(VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)),VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)))</f>
@@ -5712,7 +5756,7 @@
       </c>
       <c r="H15" s="41" cm="1">
         <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)))</f>
-        <v>10.738131506849314</v>
+        <v>0.35852054794520549</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
@@ -5745,7 +5789,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5803,25 +5847,28 @@
         <v>172</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <f>12.5/40</f>
+        <v>0.3125</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <f>12.5/40</f>
+        <v>0.3125</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5832,7 +5879,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">SUM(B2:I2*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>45</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5852,7 +5899,8 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>2.5/45</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5861,15 +5909,15 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <f>HLOOKUP(A3,Traders!$A$1:$H$15,15,)</f>
-        <v>16.798879452054791</v>
+        <v>8.8860904109589036</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">SUM(B3:I3*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5886,7 +5934,8 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>3.5/45</f>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5906,7 +5955,7 @@
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">SUM(B4:I4*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5914,28 +5963,30 @@
         <v>163</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.75</v>
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="H5">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
@@ -5943,7 +5994,7 @@
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>258.75</v>
+        <v>267.875</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -5960,10 +6011,12 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>1.5/45</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>1.5/45</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5980,7 +6033,7 @@
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">SUM(B6:I6*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -5988,7 +6041,7 @@
         <v>212</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6017,7 +6070,7 @@
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">SUM(B7:I7*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>25.874999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6037,7 +6090,8 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>1/45</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6054,7 +6108,7 @@
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">SUM(B8:I8*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6062,7 +6116,7 @@
         <v>213</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6088,11 +6142,11 @@
       <c r="J9" s="40"/>
       <c r="K9">
         <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
-        <v>10.738131506849314</v>
+        <v>0.35852054794520549</v>
       </c>
       <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6101,11 +6155,11 @@
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:I10" si="0">SUM(C2:C9)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -6113,19 +6167,19 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0.95</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -6133,7 +6187,7 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>303.75</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -7398,10 +7452,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2444F6-F631-0348-A27B-77CDC677869C}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7573,6 +7627,289 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>4/45</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F16">
+        <f>8/40</f>
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>4/45</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>3.5/45</f>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>40/45</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E19">
+        <f>33/45</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F19">
+        <f>28/40</f>
+        <v>0.7</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>0.5/45</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E20">
+        <f>1.5/45</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F20">
+        <f>1/40</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>1/45</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="E21">
+        <f>2.5/45</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F21">
+        <f>3/40</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>SUM(A16:A23)</f>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:H24" si="0">SUM(B16:B23)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D16:D23)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E16:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7706,8 +8043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14108,7 +14445,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15092,7 +15429,7 @@
   <dimension ref="A1:BM58"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="BF12" sqref="BF12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19434,6 +19771,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AH2:AW2"/>
     <mergeCell ref="AH3:AO3"/>
@@ -19442,14 +19787,6 @@
     <mergeCell ref="AX2:BM2"/>
     <mergeCell ref="AX3:BE3"/>
     <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20092,294 +20429,294 @@
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="63">
         <v>9</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="60">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="63">
         <v>9</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="60">
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="63">
         <v>9</v>
       </c>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="60">
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="63">
         <v>9</v>
       </c>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="60">
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="65"/>
+      <c r="BN3" s="63">
         <v>17</v>
       </c>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="61"/>
-      <c r="CB3" s="61"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="60">
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="65"/>
+      <c r="CD3" s="63">
         <v>17</v>
       </c>
-      <c r="CE3" s="61"/>
-      <c r="CF3" s="61"/>
-      <c r="CG3" s="61"/>
-      <c r="CH3" s="61"/>
-      <c r="CI3" s="61"/>
-      <c r="CJ3" s="61"/>
-      <c r="CK3" s="61"/>
-      <c r="CL3" s="61"/>
-      <c r="CM3" s="61"/>
-      <c r="CN3" s="61"/>
-      <c r="CO3" s="61"/>
-      <c r="CP3" s="61"/>
-      <c r="CQ3" s="61"/>
-      <c r="CR3" s="61"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="60">
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="65"/>
+      <c r="CT3" s="63">
         <v>17</v>
       </c>
-      <c r="CU3" s="61"/>
-      <c r="CV3" s="61"/>
-      <c r="CW3" s="61"/>
-      <c r="CX3" s="61"/>
-      <c r="CY3" s="61"/>
-      <c r="CZ3" s="61"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="61"/>
-      <c r="DC3" s="61"/>
-      <c r="DD3" s="61"/>
-      <c r="DE3" s="61"/>
-      <c r="DF3" s="61"/>
-      <c r="DG3" s="61"/>
-      <c r="DH3" s="61"/>
-      <c r="DI3" s="62"/>
-      <c r="DJ3" s="60">
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="64"/>
+      <c r="DH3" s="64"/>
+      <c r="DI3" s="65"/>
+      <c r="DJ3" s="63">
         <v>17</v>
       </c>
-      <c r="DK3" s="61"/>
-      <c r="DL3" s="61"/>
-      <c r="DM3" s="61"/>
-      <c r="DN3" s="61"/>
-      <c r="DO3" s="61"/>
-      <c r="DP3" s="61"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="61"/>
-      <c r="DS3" s="61"/>
-      <c r="DT3" s="61"/>
-      <c r="DU3" s="61"/>
-      <c r="DV3" s="61"/>
-      <c r="DW3" s="61"/>
-      <c r="DX3" s="61"/>
-      <c r="DY3" s="62"/>
-      <c r="DZ3" s="63">
+      <c r="DK3" s="64"/>
+      <c r="DL3" s="64"/>
+      <c r="DM3" s="64"/>
+      <c r="DN3" s="64"/>
+      <c r="DO3" s="64"/>
+      <c r="DP3" s="64"/>
+      <c r="DQ3" s="64"/>
+      <c r="DR3" s="64"/>
+      <c r="DS3" s="64"/>
+      <c r="DT3" s="64"/>
+      <c r="DU3" s="64"/>
+      <c r="DV3" s="64"/>
+      <c r="DW3" s="64"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="65"/>
+      <c r="DZ3" s="66">
         <v>25</v>
       </c>
-      <c r="EA3" s="64"/>
-      <c r="EB3" s="64"/>
-      <c r="EC3" s="64"/>
-      <c r="ED3" s="64"/>
-      <c r="EE3" s="64"/>
-      <c r="EF3" s="64"/>
-      <c r="EG3" s="64"/>
-      <c r="EH3" s="64"/>
-      <c r="EI3" s="64"/>
-      <c r="EJ3" s="64"/>
-      <c r="EK3" s="64"/>
-      <c r="EL3" s="64"/>
-      <c r="EM3" s="64"/>
-      <c r="EN3" s="64"/>
-      <c r="EO3" s="65"/>
-      <c r="EP3" s="66">
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
+      <c r="EC3" s="61"/>
+      <c r="ED3" s="61"/>
+      <c r="EE3" s="61"/>
+      <c r="EF3" s="61"/>
+      <c r="EG3" s="61"/>
+      <c r="EH3" s="61"/>
+      <c r="EI3" s="61"/>
+      <c r="EJ3" s="61"/>
+      <c r="EK3" s="61"/>
+      <c r="EL3" s="61"/>
+      <c r="EM3" s="61"/>
+      <c r="EN3" s="61"/>
+      <c r="EO3" s="62"/>
+      <c r="EP3" s="60">
         <v>25</v>
       </c>
-      <c r="EQ3" s="64"/>
-      <c r="ER3" s="64"/>
-      <c r="ES3" s="64"/>
-      <c r="ET3" s="64"/>
-      <c r="EU3" s="64"/>
-      <c r="EV3" s="64"/>
-      <c r="EW3" s="64"/>
-      <c r="EX3" s="64"/>
-      <c r="EY3" s="64"/>
-      <c r="EZ3" s="64"/>
-      <c r="FA3" s="64"/>
-      <c r="FB3" s="64"/>
-      <c r="FC3" s="64"/>
-      <c r="FD3" s="64"/>
-      <c r="FE3" s="65"/>
-      <c r="FF3" s="66">
+      <c r="EQ3" s="61"/>
+      <c r="ER3" s="61"/>
+      <c r="ES3" s="61"/>
+      <c r="ET3" s="61"/>
+      <c r="EU3" s="61"/>
+      <c r="EV3" s="61"/>
+      <c r="EW3" s="61"/>
+      <c r="EX3" s="61"/>
+      <c r="EY3" s="61"/>
+      <c r="EZ3" s="61"/>
+      <c r="FA3" s="61"/>
+      <c r="FB3" s="61"/>
+      <c r="FC3" s="61"/>
+      <c r="FD3" s="61"/>
+      <c r="FE3" s="62"/>
+      <c r="FF3" s="60">
         <v>25</v>
       </c>
-      <c r="FG3" s="64"/>
-      <c r="FH3" s="64"/>
-      <c r="FI3" s="64"/>
-      <c r="FJ3" s="64"/>
-      <c r="FK3" s="64"/>
-      <c r="FL3" s="64"/>
-      <c r="FM3" s="64"/>
-      <c r="FN3" s="64"/>
-      <c r="FO3" s="64"/>
-      <c r="FP3" s="64"/>
-      <c r="FQ3" s="64"/>
-      <c r="FR3" s="64"/>
-      <c r="FS3" s="64"/>
-      <c r="FT3" s="64"/>
-      <c r="FU3" s="65"/>
-      <c r="FV3" s="66">
+      <c r="FG3" s="61"/>
+      <c r="FH3" s="61"/>
+      <c r="FI3" s="61"/>
+      <c r="FJ3" s="61"/>
+      <c r="FK3" s="61"/>
+      <c r="FL3" s="61"/>
+      <c r="FM3" s="61"/>
+      <c r="FN3" s="61"/>
+      <c r="FO3" s="61"/>
+      <c r="FP3" s="61"/>
+      <c r="FQ3" s="61"/>
+      <c r="FR3" s="61"/>
+      <c r="FS3" s="61"/>
+      <c r="FT3" s="61"/>
+      <c r="FU3" s="62"/>
+      <c r="FV3" s="60">
         <v>25</v>
       </c>
-      <c r="FW3" s="64"/>
-      <c r="FX3" s="64"/>
-      <c r="FY3" s="64"/>
-      <c r="FZ3" s="64"/>
-      <c r="GA3" s="64"/>
-      <c r="GB3" s="64"/>
-      <c r="GC3" s="64"/>
-      <c r="GD3" s="64"/>
-      <c r="GE3" s="64"/>
-      <c r="GF3" s="64"/>
-      <c r="GG3" s="64"/>
-      <c r="GH3" s="64"/>
-      <c r="GI3" s="64"/>
-      <c r="GJ3" s="64"/>
-      <c r="GK3" s="65"/>
-      <c r="GL3" s="66">
+      <c r="FW3" s="61"/>
+      <c r="FX3" s="61"/>
+      <c r="FY3" s="61"/>
+      <c r="FZ3" s="61"/>
+      <c r="GA3" s="61"/>
+      <c r="GB3" s="61"/>
+      <c r="GC3" s="61"/>
+      <c r="GD3" s="61"/>
+      <c r="GE3" s="61"/>
+      <c r="GF3" s="61"/>
+      <c r="GG3" s="61"/>
+      <c r="GH3" s="61"/>
+      <c r="GI3" s="61"/>
+      <c r="GJ3" s="61"/>
+      <c r="GK3" s="62"/>
+      <c r="GL3" s="60">
         <v>33</v>
       </c>
-      <c r="GM3" s="64"/>
-      <c r="GN3" s="64"/>
-      <c r="GO3" s="64"/>
-      <c r="GP3" s="64"/>
-      <c r="GQ3" s="64"/>
-      <c r="GR3" s="64"/>
-      <c r="GS3" s="64"/>
-      <c r="GT3" s="64"/>
-      <c r="GU3" s="64"/>
-      <c r="GV3" s="64"/>
-      <c r="GW3" s="64"/>
-      <c r="GX3" s="64"/>
-      <c r="GY3" s="64"/>
-      <c r="GZ3" s="64"/>
-      <c r="HA3" s="65"/>
-      <c r="HB3" s="66">
+      <c r="GM3" s="61"/>
+      <c r="GN3" s="61"/>
+      <c r="GO3" s="61"/>
+      <c r="GP3" s="61"/>
+      <c r="GQ3" s="61"/>
+      <c r="GR3" s="61"/>
+      <c r="GS3" s="61"/>
+      <c r="GT3" s="61"/>
+      <c r="GU3" s="61"/>
+      <c r="GV3" s="61"/>
+      <c r="GW3" s="61"/>
+      <c r="GX3" s="61"/>
+      <c r="GY3" s="61"/>
+      <c r="GZ3" s="61"/>
+      <c r="HA3" s="62"/>
+      <c r="HB3" s="60">
         <v>33</v>
       </c>
-      <c r="HC3" s="64"/>
-      <c r="HD3" s="64"/>
-      <c r="HE3" s="64"/>
-      <c r="HF3" s="64"/>
-      <c r="HG3" s="64"/>
-      <c r="HH3" s="64"/>
-      <c r="HI3" s="64"/>
-      <c r="HJ3" s="64"/>
-      <c r="HK3" s="64"/>
-      <c r="HL3" s="64"/>
-      <c r="HM3" s="64"/>
-      <c r="HN3" s="64"/>
-      <c r="HO3" s="64"/>
-      <c r="HP3" s="64"/>
-      <c r="HQ3" s="65"/>
-      <c r="HR3" s="66">
+      <c r="HC3" s="61"/>
+      <c r="HD3" s="61"/>
+      <c r="HE3" s="61"/>
+      <c r="HF3" s="61"/>
+      <c r="HG3" s="61"/>
+      <c r="HH3" s="61"/>
+      <c r="HI3" s="61"/>
+      <c r="HJ3" s="61"/>
+      <c r="HK3" s="61"/>
+      <c r="HL3" s="61"/>
+      <c r="HM3" s="61"/>
+      <c r="HN3" s="61"/>
+      <c r="HO3" s="61"/>
+      <c r="HP3" s="61"/>
+      <c r="HQ3" s="62"/>
+      <c r="HR3" s="60">
         <v>33</v>
       </c>
-      <c r="HS3" s="64"/>
-      <c r="HT3" s="64"/>
-      <c r="HU3" s="64"/>
-      <c r="HV3" s="64"/>
-      <c r="HW3" s="64"/>
-      <c r="HX3" s="64"/>
-      <c r="HY3" s="64"/>
-      <c r="HZ3" s="64"/>
-      <c r="IA3" s="64"/>
-      <c r="IB3" s="64"/>
-      <c r="IC3" s="64"/>
-      <c r="ID3" s="64"/>
-      <c r="IE3" s="64"/>
-      <c r="IF3" s="64"/>
-      <c r="IG3" s="65"/>
-      <c r="IH3" s="66">
+      <c r="HS3" s="61"/>
+      <c r="HT3" s="61"/>
+      <c r="HU3" s="61"/>
+      <c r="HV3" s="61"/>
+      <c r="HW3" s="61"/>
+      <c r="HX3" s="61"/>
+      <c r="HY3" s="61"/>
+      <c r="HZ3" s="61"/>
+      <c r="IA3" s="61"/>
+      <c r="IB3" s="61"/>
+      <c r="IC3" s="61"/>
+      <c r="ID3" s="61"/>
+      <c r="IE3" s="61"/>
+      <c r="IF3" s="61"/>
+      <c r="IG3" s="62"/>
+      <c r="IH3" s="60">
         <v>33</v>
       </c>
-      <c r="II3" s="64"/>
-      <c r="IJ3" s="64"/>
-      <c r="IK3" s="64"/>
-      <c r="IL3" s="64"/>
-      <c r="IM3" s="64"/>
-      <c r="IN3" s="64"/>
-      <c r="IO3" s="64"/>
-      <c r="IP3" s="64"/>
-      <c r="IQ3" s="64"/>
-      <c r="IR3" s="64"/>
-      <c r="IS3" s="64"/>
-      <c r="IT3" s="64"/>
-      <c r="IU3" s="64"/>
-      <c r="IV3" s="64"/>
-      <c r="IW3" s="65"/>
+      <c r="II3" s="61"/>
+      <c r="IJ3" s="61"/>
+      <c r="IK3" s="61"/>
+      <c r="IL3" s="61"/>
+      <c r="IM3" s="61"/>
+      <c r="IN3" s="61"/>
+      <c r="IO3" s="61"/>
+      <c r="IP3" s="61"/>
+      <c r="IQ3" s="61"/>
+      <c r="IR3" s="61"/>
+      <c r="IS3" s="61"/>
+      <c r="IT3" s="61"/>
+      <c r="IU3" s="61"/>
+      <c r="IV3" s="61"/>
+      <c r="IW3" s="62"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -32616,19 +32953,57 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="HB2:HQ2"/>
-    <mergeCell ref="HR2:IG2"/>
-    <mergeCell ref="IH2:IW2"/>
-    <mergeCell ref="DZ2:EO2"/>
-    <mergeCell ref="EP2:FE2"/>
-    <mergeCell ref="FF2:FU2"/>
-    <mergeCell ref="FV2:GK2"/>
-    <mergeCell ref="GL2:HA2"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD2:CS2"/>
-    <mergeCell ref="CT2:DI2"/>
-    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="CT4:DA4"/>
+    <mergeCell ref="DB4:DI4"/>
+    <mergeCell ref="DJ4:DQ4"/>
+    <mergeCell ref="DR4:DY4"/>
+    <mergeCell ref="DZ4:EG4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="FV4:GC4"/>
+    <mergeCell ref="GD4:GK4"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="HZ4:IG4"/>
+    <mergeCell ref="IH4:IO4"/>
+    <mergeCell ref="IP4:IW4"/>
+    <mergeCell ref="AH3:AW3"/>
+    <mergeCell ref="AX3:BM3"/>
+    <mergeCell ref="BN3:CC3"/>
+    <mergeCell ref="CD3:CS3"/>
+    <mergeCell ref="CT3:DI3"/>
+    <mergeCell ref="DJ3:DY3"/>
+    <mergeCell ref="DZ3:EO3"/>
+    <mergeCell ref="EP3:FE3"/>
+    <mergeCell ref="FF3:FU3"/>
+    <mergeCell ref="FV3:GK3"/>
+    <mergeCell ref="GL3:HA3"/>
+    <mergeCell ref="HB3:HQ3"/>
+    <mergeCell ref="HR3:IG3"/>
     <mergeCell ref="IH3:IW3"/>
     <mergeCell ref="AH1:AW1"/>
     <mergeCell ref="AX1:BM1"/>
@@ -32645,57 +33020,19 @@
     <mergeCell ref="HR1:IG1"/>
     <mergeCell ref="IH1:IW1"/>
     <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="HZ4:IG4"/>
-    <mergeCell ref="IH4:IO4"/>
-    <mergeCell ref="IP4:IW4"/>
-    <mergeCell ref="AH3:AW3"/>
-    <mergeCell ref="AX3:BM3"/>
-    <mergeCell ref="BN3:CC3"/>
-    <mergeCell ref="CD3:CS3"/>
-    <mergeCell ref="CT3:DI3"/>
-    <mergeCell ref="DJ3:DY3"/>
-    <mergeCell ref="DZ3:EO3"/>
-    <mergeCell ref="EP3:FE3"/>
-    <mergeCell ref="FF3:FU3"/>
-    <mergeCell ref="FV3:GK3"/>
-    <mergeCell ref="GL3:HA3"/>
-    <mergeCell ref="HB3:HQ3"/>
-    <mergeCell ref="HR3:IG3"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HR4:HY4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="FV4:GC4"/>
-    <mergeCell ref="GD4:GK4"/>
-    <mergeCell ref="DJ4:DQ4"/>
-    <mergeCell ref="DR4:DY4"/>
-    <mergeCell ref="DZ4:EG4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="CT4:DA4"/>
-    <mergeCell ref="DB4:DI4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD2:CS2"/>
+    <mergeCell ref="CT2:DI2"/>
+    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="HB2:HQ2"/>
+    <mergeCell ref="HR2:IG2"/>
+    <mergeCell ref="IH2:IW2"/>
+    <mergeCell ref="DZ2:EO2"/>
+    <mergeCell ref="EP2:FE2"/>
+    <mergeCell ref="FF2:FU2"/>
+    <mergeCell ref="FV2:GK2"/>
+    <mergeCell ref="GL2:HA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33019,7 +33356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC207F0E-65E5-C544-8BA0-D27121ACF2FF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/Data/OurData3.xlsx
+++ b/Data/OurData3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760082C9-4F94-884C-ABFC-FDAE3990B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1238F5-C2AB-6849-8AEA-A32745F29AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="1" activeTab="10" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" firstSheet="3" activeTab="16" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="TraderPercentages" sheetId="16" r:id="rId12"/>
     <sheet name="Commodities" sheetId="4" r:id="rId13"/>
     <sheet name="Probabilities" sheetId="14" r:id="rId14"/>
-    <sheet name="ProductionCapacities" sheetId="15" r:id="rId15"/>
-    <sheet name="Extra" sheetId="17" r:id="rId16"/>
+    <sheet name="HydrogenUncertainty" sheetId="18" r:id="rId15"/>
+    <sheet name="ProductionCapacities" sheetId="15" r:id="rId16"/>
+    <sheet name="Extra" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Arcs!$A$1:$N$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Nodes!$A$2:$AI$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">ProductionCapacities!$A$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Nodes!$A$2:$AI$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">ProductionCapacities!$A$1:$H$51</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">TraderPercentages!$B$2:$I$9</definedName>
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="345">
   <si>
     <t>ID</t>
   </si>
@@ -1139,12 +1140,21 @@
   <si>
     <t>Dummy pipe gjoa</t>
   </si>
+  <si>
+    <t>Number scenarios hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHAN SVERDRUP RP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATFJORD B </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1275,6 +1285,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1495,7 +1512,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1575,6 +1592,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,15 +1608,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,8 +1620,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1678,6 +1694,130 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstvak 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E8FDCF-3183-B6A1-39F7-433D67DC9B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="723900"/>
+          <a:ext cx="3035300" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>STATFJORD B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL"/>
+            <a:t> Ligt dichtbij Gullfaks (Hywind Tampen)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JOHAN SVERDRUP RP ligt dicthbij Utsira Nord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EKOFISK J (ligt dicthbij Sorlige Norsdjo II)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1997,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,10 +2254,10 @@
         <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N2" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" ref="O2">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K2,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K2,5), ",",".")</f>
@@ -2174,10 +2314,10 @@
         <v>14</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N3" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K3,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K3,5), ",",".")</f>
@@ -2234,10 +2374,10 @@
         <v>36</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K4,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K4,5), ",",".")</f>
@@ -2294,10 +2434,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K5,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K5,5), ",",".")</f>
@@ -2354,10 +2494,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K6,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K6,5), ",",".")</f>
@@ -2414,10 +2554,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K7,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K7,5), ",",".")</f>
@@ -2474,10 +2614,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K8,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K8,5), ",",".")</f>
@@ -2534,10 +2674,10 @@
         <v>17</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K9,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K9,5), ",",".")</f>
@@ -2594,10 +2734,10 @@
         <v>37</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K10,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K10,5), ",",".")</f>
@@ -2654,10 +2794,10 @@
         <v>51</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K11,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K11,5), ",",".")</f>
@@ -2714,10 +2854,10 @@
         <v>18</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K12,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K12,5), ",",".")</f>
@@ -2774,10 +2914,10 @@
         <v>42</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K13,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K13,5), ",",".")</f>
@@ -2834,10 +2974,10 @@
         <v>20</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K14,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K14,5), ",",".")</f>
@@ -2894,10 +3034,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K15,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K15,5), ",",".")</f>
@@ -2954,10 +3094,10 @@
         <v>30</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K16,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K16,5), ",",".")</f>
@@ -3014,10 +3154,10 @@
         <v>22</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N17" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K17,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K17,5), ",",".")</f>
@@ -3074,10 +3214,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" ref="O18">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K18,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K18,5), ",",".")</f>
@@ -3134,10 +3274,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" ref="O19">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K19,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K19,5), ",",".")</f>
@@ -3194,10 +3334,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N20" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" ref="O20">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K20,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K20,5), ",",".")</f>
@@ -3254,10 +3394,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N21" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" ref="O21">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K21,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K21,5), ",",".")</f>
@@ -3314,10 +3454,10 @@
         <v>43</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" ref="O22">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K22,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K22,5), ",",".")</f>
@@ -3374,10 +3514,10 @@
         <v>53</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" ref="O23">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K23,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K23,5), ",",".")</f>
@@ -3434,10 +3574,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N24" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" ref="O24">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K24,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K24,5), ",",".")</f>
@@ -3494,10 +3634,10 @@
         <v>52</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N25" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" ref="O25">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K25,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K25,5), ",",".")</f>
@@ -3554,10 +3694,10 @@
         <v>59</v>
       </c>
       <c r="M26" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N26" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O26" t="str" cm="1">
         <f t="array" ref="O26">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K26,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K26,5), ",",".")</f>
@@ -3614,10 +3754,10 @@
         <v>58</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O27" t="str" cm="1">
         <f t="array" ref="O27">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K27,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K27,5), ",",".")</f>
@@ -3674,10 +3814,10 @@
         <v>51</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N28" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O28" t="str" cm="1">
         <f t="array" ref="O28">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K28,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K28,5), ",",".")</f>
@@ -3734,10 +3874,10 @@
         <v>15</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N29" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" ref="O29">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K29,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K29,5), ",",".")</f>
@@ -3794,10 +3934,10 @@
         <v>27</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N30" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" ref="O30">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K30,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K30,5), ",",".")</f>
@@ -3854,10 +3994,10 @@
         <v>28</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N31" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" ref="O31">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K31,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K31,5), ",",".")</f>
@@ -3914,10 +4054,10 @@
         <v>50</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N32" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O32" t="str" cm="1">
         <f t="array" ref="O32">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K32,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K32,5), ",",".")</f>
@@ -3974,10 +4114,10 @@
         <v>56</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N33" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" ref="O33">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K33,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K33,5), ",",".")</f>
@@ -4034,10 +4174,10 @@
         <v>42</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N34" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O34" t="str" cm="1">
         <f t="array" ref="O34">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K34,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K34,5), ",",".")</f>
@@ -4094,10 +4234,10 @@
         <v>35</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N35" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" ref="O35">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K35,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K35,5), ",",".")</f>
@@ -4154,10 +4294,10 @@
         <v>25</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N36" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O36" t="str" cm="1">
         <f t="array" ref="O36">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K36,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K36,5), ",",".")</f>
@@ -4214,10 +4354,10 @@
         <v>44</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N37" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" ref="O37">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K37,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K37,5), ",",".")</f>
@@ -4274,10 +4414,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N38" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O38" t="str" cm="1">
         <f t="array" ref="O38">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K38,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K38,5), ",",".")</f>
@@ -4334,10 +4474,10 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N39" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O39" t="str" cm="1">
         <f t="array" ref="O39">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K39,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K39,5), ",",".")</f>
@@ -4394,10 +4534,10 @@
         <v>37</v>
       </c>
       <c r="M40" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N40" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K40,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K40,5), ",",".")</f>
@@ -4454,10 +4594,10 @@
         <v>48</v>
       </c>
       <c r="M41" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N41" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O41" t="str" cm="1">
         <f t="array" ref="O41">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K41,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K41,5), ",",".")</f>
@@ -4514,10 +4654,10 @@
         <v>16</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N42" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O42" t="str" cm="1">
         <f t="array" ref="O42">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K42,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K42,5), ",",".")</f>
@@ -4568,10 +4708,10 @@
         <v>9</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N43" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O43" t="str" cm="1">
         <f t="array" ref="O43">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K43,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K43,5), ",",".")</f>
@@ -4622,10 +4762,10 @@
         <v>11</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N44" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O44" t="str" cm="1">
         <f t="array" ref="O44">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K44,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K44,5), ",",".")</f>
@@ -4676,10 +4816,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N45" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O45" t="str" cm="1">
         <f t="array" ref="O45">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K45,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K45,5), ",",".")</f>
@@ -4729,10 +4869,10 @@
         <v>55</v>
       </c>
       <c r="M46" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N46" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O46" t="str" cm="1">
         <f t="array" ref="O46">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K46,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K46,5), ",",".")</f>
@@ -4783,10 +4923,10 @@
         <v>52</v>
       </c>
       <c r="M47" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N47" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O47" t="str" cm="1">
         <f t="array" ref="O47">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K47,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K47,5), ",",".")</f>
@@ -4834,10 +4974,10 @@
         <v>10</v>
       </c>
       <c r="M48" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N48" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O48" t="str" cm="1">
         <f t="array" ref="O48">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K48,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K48,5), ",",".")</f>
@@ -4885,10 +5025,10 @@
         <v>12</v>
       </c>
       <c r="M49" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N49" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O49" t="str" cm="1">
         <f t="array" ref="O49">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K49,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K49,5), ",",".")</f>
@@ -4936,10 +5076,10 @@
         <v>15</v>
       </c>
       <c r="M50" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N50" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O50" t="str" cm="1">
         <f t="array" ref="O50">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K50,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K50,5), ",",".")</f>
@@ -4987,10 +5127,10 @@
         <v>51</v>
       </c>
       <c r="M51" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N51" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K51,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K51,5), ",",".")</f>
@@ -5038,10 +5178,10 @@
         <v>43</v>
       </c>
       <c r="M52" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N52" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O52" t="str" cm="1">
         <f t="array" ref="O52">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K52,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K52,5), ",",".")</f>
@@ -5098,10 +5238,10 @@
         <v>13</v>
       </c>
       <c r="M53" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N53" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O53" t="str" cm="1">
         <f t="array" ref="O53">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K53,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K53,5), ",",".")</f>
@@ -5158,10 +5298,10 @@
         <v>40</v>
       </c>
       <c r="M54" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N54" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O54" t="str" cm="1">
         <f t="array" ref="O54">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K54,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K54,5), ",",".")</f>
@@ -5218,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N55" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O55" t="str" cm="1">
         <f t="array" ref="O55">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K55,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K55,5), ",",".")</f>
@@ -5269,10 +5409,10 @@
         <v>46</v>
       </c>
       <c r="M56" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N56" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O56" t="str" cm="1">
         <f t="array" ref="O56">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K56,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K56,5), ",",".")</f>
@@ -5320,10 +5460,10 @@
         <v>2</v>
       </c>
       <c r="M57" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N57" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O57" t="str" cm="1">
         <f t="array" ref="O57">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K57,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K57,5), ",",".")</f>
@@ -5371,10 +5511,10 @@
         <v>34</v>
       </c>
       <c r="M58" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N58" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O58" t="str" cm="1">
         <f t="array" ref="O58">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K58,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K58,5), ",",".")</f>
@@ -5422,10 +5562,10 @@
         <v>36</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N59" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O59" t="str" cm="1">
         <f t="array" ref="O59">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K59,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K59,5), ",",".")</f>
@@ -5473,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="M60" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N60" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O60" t="str" cm="1">
         <f t="array" ref="O60">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K60,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K60,5), ",",".")</f>
@@ -5524,10 +5664,10 @@
         <v>33</v>
       </c>
       <c r="M61" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N61" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O61" t="str" cm="1">
         <f t="array" ref="O61">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K61,5), ",",".")</f>
@@ -5546,13 +5686,13 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="31" t="s">
         <v>341</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="67" t="s">
+      <c r="G62" s="52" t="s">
         <v>88</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -5571,10 +5711,10 @@
         <v>24</v>
       </c>
       <c r="M62" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N62" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O62" t="str" cm="1">
         <f t="array" ref="O62">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), ",",".")</f>
@@ -5600,7 +5740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6309,6 +6449,212 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.15</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.45</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.45</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.45</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -7450,11 +7796,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2444F6-F631-0348-A27B-77CDC677869C}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
@@ -8043,8 +8389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8087,39 +8433,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -8305,31 +8651,39 @@
         <v>0</v>
       </c>
       <c r="AA3" s="3">
-        <v>1</v>
+        <f>M3</f>
+        <v>10</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
       </c>
       <c r="AC3" s="3">
-        <v>1</v>
+        <f>O3</f>
+        <v>3</v>
       </c>
       <c r="AD3" s="3">
-        <v>1</v>
+        <f t="shared" ref="AD3:AI3" si="0">P3</f>
+        <v>5</v>
       </c>
       <c r="AE3" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="AF3" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="AG3" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="AH3" s="3">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>5.4</v>
       </c>
       <c r="AI3" s="3">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -8409,31 +8763,39 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>1</v>
+        <f t="shared" ref="AA4:AA61" si="1">M4</f>
+        <v>10</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>1</v>
+        <f t="shared" ref="AC4:AC61" si="2">O4</f>
+        <v>3</v>
       </c>
       <c r="AD4" s="3">
-        <v>1</v>
+        <f t="shared" ref="AD4:AD61" si="3">P4</f>
+        <v>5</v>
       </c>
       <c r="AE4" s="3">
-        <v>1</v>
+        <f t="shared" ref="AE4:AE61" si="4">Q4</f>
+        <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <v>3</v>
+        <f t="shared" ref="AF4:AF61" si="5">R4</f>
+        <v>5.2</v>
       </c>
       <c r="AG4" s="3">
-        <v>3</v>
+        <f t="shared" ref="AG4:AG61" si="6">S4</f>
+        <v>5.2</v>
       </c>
       <c r="AH4" s="3">
-        <v>5</v>
+        <f t="shared" ref="AH4:AH61" si="7">T4</f>
+        <v>5.4</v>
       </c>
       <c r="AI4" s="3">
-        <v>5</v>
+        <f t="shared" ref="AI4:AI61" si="8">U4</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -8515,31 +8877,39 @@
         <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD5" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE5" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF5" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG5" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH5" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI5" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -8619,31 +8989,39 @@
         <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD6" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE6" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF6" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG6" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH6" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI6" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -8723,31 +9101,39 @@
         <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD7" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF7" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG7" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH7" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI7" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -8829,31 +9215,39 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD8" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE8" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF8" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG8" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH8" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI8" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -8935,31 +9329,39 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD9" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE9" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF9" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG9" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH9" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI9" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -9038,31 +9440,39 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD10" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE10" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF10" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG10" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH10" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI10" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -9142,31 +9552,39 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD11" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE11" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF11" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG11" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH11" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI11" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -9246,31 +9664,39 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD12" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE12" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF12" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG12" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH12" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI12" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -9350,31 +9776,39 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD13" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE13" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF13" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG13" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH13" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI13" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -9454,31 +9888,39 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD14" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE14" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF14" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG14" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH14" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI14" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -9560,31 +10002,39 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD15" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF15" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG15" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH15" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI15" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
@@ -9664,31 +10114,39 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB16" s="3">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD16" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE16" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF16" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG16" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH16" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI16" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -9768,31 +10226,39 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD17" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG17" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH17" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI17" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -9872,31 +10338,39 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD18" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF18" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG18" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH18" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI18" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -9942,7 +10416,7 @@
         <v>100</v>
       </c>
       <c r="O19" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P19" s="2">
         <v>5</v>
@@ -9978,31 +10452,39 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD19" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE19" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF19" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG19" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH19" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI19" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -10048,7 +10530,7 @@
         <v>100</v>
       </c>
       <c r="O20" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P20" s="2">
         <v>5</v>
@@ -10084,31 +10566,39 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD20" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF20" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG20" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH20" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI20" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -10190,31 +10680,39 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD21" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG21" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH21" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI21" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -10294,31 +10792,39 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD22" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG22" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH22" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI22" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -10364,7 +10870,7 @@
         <v>100</v>
       </c>
       <c r="O23" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P23" s="2">
         <v>5</v>
@@ -10400,31 +10906,39 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD23" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE23" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG23" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH23" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI23" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
@@ -10470,7 +10984,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P24" s="2">
         <v>5</v>
@@ -10506,31 +11020,39 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD24" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE24" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF24" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG24" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH24" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI24" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -10610,31 +11132,39 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB25" s="3">
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD25" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE25" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF25" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG25" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH25" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI25" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -10714,31 +11244,39 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD26" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE26" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF26" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG26" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH26" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI26" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
@@ -10820,31 +11358,39 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD27" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE27" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF27" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG27" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH27" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI27" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
@@ -10926,31 +11472,39 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD28" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE28" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF28" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG28" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH28" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI28" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -11032,31 +11586,39 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD29" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE29" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF29" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG29" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH29" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI29" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
@@ -11136,31 +11698,39 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD30" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE30" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF30" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG30" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH30" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI30" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
@@ -11240,31 +11810,39 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB31" s="3">
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD31" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE31" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF31" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG31" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH31" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI31" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -11344,31 +11922,39 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD32" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE32" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF32" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG32" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH32" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI32" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
@@ -11450,31 +12036,39 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD33" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE33" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF33" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG33" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH33" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI33" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
@@ -11554,31 +12148,39 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD34" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE34" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF34" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG34" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH34" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI34" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
@@ -11658,31 +12260,39 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD35" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE35" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF35" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG35" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH35" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI35" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
@@ -11764,31 +12374,39 @@
         <v>0</v>
       </c>
       <c r="AA36" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB36" s="3">
         <v>0</v>
       </c>
       <c r="AC36" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD36" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE36" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF36" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG36" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH36" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI36" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
@@ -11870,31 +12488,39 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
       </c>
       <c r="AC37" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD37" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE37" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF37" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG37" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH37" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI37" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -11974,31 +12600,39 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB38" s="3">
         <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD38" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE38" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF38" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG38" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH38" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI38" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -12078,31 +12712,39 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD39" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE39" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF39" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG39" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH39" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI39" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
@@ -12182,31 +12824,39 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD40" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE40" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF40" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG40" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH40" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI40" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
@@ -12288,31 +12938,39 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD41" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE41" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF41" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG41" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH41" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI41" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
@@ -12392,31 +13050,39 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD42" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE42" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF42" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG42" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH42" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI42" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
@@ -12498,31 +13164,39 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD43" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE43" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF43" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG43" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH43" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI43" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -12604,31 +13278,39 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD44" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE44" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF44" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG44" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH44" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI44" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
@@ -12708,31 +13390,39 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD45" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE45" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF45" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG45" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH45" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI45" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
@@ -12812,31 +13502,39 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD46" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE46" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF46" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG46" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH46" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI46" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
@@ -12916,31 +13614,39 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD47" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE47" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF47" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG47" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH47" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI47" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
@@ -13020,31 +13726,39 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD48" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE48" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF48" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG48" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH48" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI48" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
@@ -13090,7 +13804,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P49" s="2">
         <v>5</v>
@@ -13126,31 +13840,39 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD49" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE49" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF49" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG49" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH49" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI49" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
@@ -13232,31 +13954,39 @@
         <v>0</v>
       </c>
       <c r="AA50" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD50" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE50" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF50" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG50" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH50" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI50" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
@@ -13338,31 +14068,39 @@
         <v>0</v>
       </c>
       <c r="AA51" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
       </c>
       <c r="AC51" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD51" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE51" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF51" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG51" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH51" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI51" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
@@ -13442,31 +14180,39 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD52" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE52" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF52" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG52" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH52" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI52" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
@@ -13546,31 +14292,39 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
       </c>
       <c r="AC53" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD53" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE53" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF53" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG53" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH53" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI53" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
@@ -13616,7 +14370,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P54" s="2">
         <v>5</v>
@@ -13652,31 +14406,39 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD54" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE54" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF54" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG54" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH54" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI54" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
@@ -13756,31 +14518,39 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
       </c>
       <c r="AC55" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD55" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE55" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF55" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG55" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH55" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI55" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
@@ -13860,31 +14630,39 @@
         <v>0</v>
       </c>
       <c r="AA56" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
       </c>
       <c r="AC56" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD56" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE56" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF56" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG56" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH56" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI56" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
@@ -13930,7 +14708,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P57" s="2">
         <v>5</v>
@@ -13966,31 +14744,39 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD57" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE57" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF57" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG57" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH57" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI57" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
@@ -14072,31 +14858,39 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD58" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE58" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF58" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG58" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH58" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI58" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
@@ -14176,31 +14970,39 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD59" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE59" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF59" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG59" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH59" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI59" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
@@ -14246,7 +15048,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="2">
-        <v>3</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="P60" s="2">
         <v>5</v>
@@ -14282,31 +15084,39 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
       <c r="AC60" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2.9990000000000001</v>
       </c>
       <c r="AD60" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE60" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF60" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG60" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH60" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI60" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
@@ -14386,31 +15196,39 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="AD61" s="3">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="AE61" s="3">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AF61" s="3">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5.2</v>
       </c>
       <c r="AG61" s="3">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>5.2</v>
       </c>
       <c r="AH61" s="3">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.4</v>
       </c>
       <c r="AI61" s="3">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
@@ -14426,7 +15244,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI2" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
+  <autoFilter ref="A2:AI61" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AI61">
       <sortCondition ref="B2:B61"/>
     </sortState>
@@ -14457,70 +15275,70 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="58">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="58">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -15457,244 +16275,244 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57">
-        <v>5</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57">
+      <c r="B1" s="58">
+        <v>5</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58">
         <f>B1+Parameters!$B$7</f>
         <v>13</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58">
         <f>R1+Parameters!$B$7</f>
         <v>21</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57">
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58">
         <f>AH1+Parameters!$B$7</f>
         <v>29</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="58">
         <v>0.25</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57">
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="58" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="59" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="58" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="59" t="s">
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="58" t="s">
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="59" t="s">
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="59"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -19771,6 +20589,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AH2:AW2"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="B1:Q1"/>
@@ -19779,14 +20605,6 @@
     <mergeCell ref="R2:AG2"/>
     <mergeCell ref="R3:Y3"/>
     <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19796,7 +20614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
-    <sheetView topLeftCell="ID1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="JA13" sqref="JA13"/>
     </sheetView>
   </sheetViews>
@@ -19811,1235 +20629,1235 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57">
+      <c r="B1" s="58">
         <f>(Parameters!B8+1)*Parameters!B7 + 1</f>
         <v>41</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58">
         <f>B1+Parameters!$B$7</f>
         <v>49</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58">
         <f>R1+Parameters!$B$7</f>
         <v>57</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57">
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58">
         <f>AH1+Parameters!$B$7</f>
         <v>65</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57">
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58">
         <f>AX1+Parameters!$B$7</f>
         <v>73</v>
       </c>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="57"/>
-      <c r="BZ1" s="57"/>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57">
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58"/>
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58">
         <f>BN1+Parameters!$B$7</f>
         <v>81</v>
       </c>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="57"/>
-      <c r="CH1" s="57"/>
-      <c r="CI1" s="57"/>
-      <c r="CJ1" s="57"/>
-      <c r="CK1" s="57"/>
-      <c r="CL1" s="57"/>
-      <c r="CM1" s="57"/>
-      <c r="CN1" s="57"/>
-      <c r="CO1" s="57"/>
-      <c r="CP1" s="57"/>
-      <c r="CQ1" s="57"/>
-      <c r="CR1" s="57"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57">
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
+      <c r="CJ1" s="58"/>
+      <c r="CK1" s="58"/>
+      <c r="CL1" s="58"/>
+      <c r="CM1" s="58"/>
+      <c r="CN1" s="58"/>
+      <c r="CO1" s="58"/>
+      <c r="CP1" s="58"/>
+      <c r="CQ1" s="58"/>
+      <c r="CR1" s="58"/>
+      <c r="CS1" s="58"/>
+      <c r="CT1" s="58">
         <f>CD1+Parameters!$B$7</f>
         <v>89</v>
       </c>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57"/>
-      <c r="CW1" s="57"/>
-      <c r="CX1" s="57"/>
-      <c r="CY1" s="57"/>
-      <c r="CZ1" s="57"/>
-      <c r="DA1" s="57"/>
-      <c r="DB1" s="57"/>
-      <c r="DC1" s="57"/>
-      <c r="DD1" s="57"/>
-      <c r="DE1" s="57"/>
-      <c r="DF1" s="57"/>
-      <c r="DG1" s="57"/>
-      <c r="DH1" s="57"/>
-      <c r="DI1" s="57"/>
-      <c r="DJ1" s="57">
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
+      <c r="DG1" s="58"/>
+      <c r="DH1" s="58"/>
+      <c r="DI1" s="58"/>
+      <c r="DJ1" s="58">
         <f>CT1+Parameters!$B$7</f>
         <v>97</v>
       </c>
-      <c r="DK1" s="57"/>
-      <c r="DL1" s="57"/>
-      <c r="DM1" s="57"/>
-      <c r="DN1" s="57"/>
-      <c r="DO1" s="57"/>
-      <c r="DP1" s="57"/>
-      <c r="DQ1" s="57"/>
-      <c r="DR1" s="57"/>
-      <c r="DS1" s="57"/>
-      <c r="DT1" s="57"/>
-      <c r="DU1" s="57"/>
-      <c r="DV1" s="57"/>
-      <c r="DW1" s="57"/>
-      <c r="DX1" s="57"/>
-      <c r="DY1" s="57"/>
-      <c r="DZ1" s="57">
+      <c r="DK1" s="58"/>
+      <c r="DL1" s="58"/>
+      <c r="DM1" s="58"/>
+      <c r="DN1" s="58"/>
+      <c r="DO1" s="58"/>
+      <c r="DP1" s="58"/>
+      <c r="DQ1" s="58"/>
+      <c r="DR1" s="58"/>
+      <c r="DS1" s="58"/>
+      <c r="DT1" s="58"/>
+      <c r="DU1" s="58"/>
+      <c r="DV1" s="58"/>
+      <c r="DW1" s="58"/>
+      <c r="DX1" s="58"/>
+      <c r="DY1" s="58"/>
+      <c r="DZ1" s="58">
         <f>DJ1+Parameters!$B$7</f>
         <v>105</v>
       </c>
-      <c r="EA1" s="57"/>
-      <c r="EB1" s="57"/>
-      <c r="EC1" s="57"/>
-      <c r="ED1" s="57"/>
-      <c r="EE1" s="57"/>
-      <c r="EF1" s="57"/>
-      <c r="EG1" s="57"/>
-      <c r="EH1" s="57"/>
-      <c r="EI1" s="57"/>
-      <c r="EJ1" s="57"/>
-      <c r="EK1" s="57"/>
-      <c r="EL1" s="57"/>
-      <c r="EM1" s="57"/>
-      <c r="EN1" s="57"/>
-      <c r="EO1" s="57"/>
-      <c r="EP1" s="57">
+      <c r="EA1" s="58"/>
+      <c r="EB1" s="58"/>
+      <c r="EC1" s="58"/>
+      <c r="ED1" s="58"/>
+      <c r="EE1" s="58"/>
+      <c r="EF1" s="58"/>
+      <c r="EG1" s="58"/>
+      <c r="EH1" s="58"/>
+      <c r="EI1" s="58"/>
+      <c r="EJ1" s="58"/>
+      <c r="EK1" s="58"/>
+      <c r="EL1" s="58"/>
+      <c r="EM1" s="58"/>
+      <c r="EN1" s="58"/>
+      <c r="EO1" s="58"/>
+      <c r="EP1" s="58">
         <f>DZ1+Parameters!$B$7</f>
         <v>113</v>
       </c>
-      <c r="EQ1" s="57"/>
-      <c r="ER1" s="57"/>
-      <c r="ES1" s="57"/>
-      <c r="ET1" s="57"/>
-      <c r="EU1" s="57"/>
-      <c r="EV1" s="57"/>
-      <c r="EW1" s="57"/>
-      <c r="EX1" s="57"/>
-      <c r="EY1" s="57"/>
-      <c r="EZ1" s="57"/>
-      <c r="FA1" s="57"/>
-      <c r="FB1" s="57"/>
-      <c r="FC1" s="57"/>
-      <c r="FD1" s="57"/>
-      <c r="FE1" s="57"/>
-      <c r="FF1" s="57">
+      <c r="EQ1" s="58"/>
+      <c r="ER1" s="58"/>
+      <c r="ES1" s="58"/>
+      <c r="ET1" s="58"/>
+      <c r="EU1" s="58"/>
+      <c r="EV1" s="58"/>
+      <c r="EW1" s="58"/>
+      <c r="EX1" s="58"/>
+      <c r="EY1" s="58"/>
+      <c r="EZ1" s="58"/>
+      <c r="FA1" s="58"/>
+      <c r="FB1" s="58"/>
+      <c r="FC1" s="58"/>
+      <c r="FD1" s="58"/>
+      <c r="FE1" s="58"/>
+      <c r="FF1" s="58">
         <f>EP1+Parameters!$B$7</f>
         <v>121</v>
       </c>
-      <c r="FG1" s="57"/>
-      <c r="FH1" s="57"/>
-      <c r="FI1" s="57"/>
-      <c r="FJ1" s="57"/>
-      <c r="FK1" s="57"/>
-      <c r="FL1" s="57"/>
-      <c r="FM1" s="57"/>
-      <c r="FN1" s="57"/>
-      <c r="FO1" s="57"/>
-      <c r="FP1" s="57"/>
-      <c r="FQ1" s="57"/>
-      <c r="FR1" s="57"/>
-      <c r="FS1" s="57"/>
-      <c r="FT1" s="57"/>
-      <c r="FU1" s="57"/>
-      <c r="FV1" s="57">
+      <c r="FG1" s="58"/>
+      <c r="FH1" s="58"/>
+      <c r="FI1" s="58"/>
+      <c r="FJ1" s="58"/>
+      <c r="FK1" s="58"/>
+      <c r="FL1" s="58"/>
+      <c r="FM1" s="58"/>
+      <c r="FN1" s="58"/>
+      <c r="FO1" s="58"/>
+      <c r="FP1" s="58"/>
+      <c r="FQ1" s="58"/>
+      <c r="FR1" s="58"/>
+      <c r="FS1" s="58"/>
+      <c r="FT1" s="58"/>
+      <c r="FU1" s="58"/>
+      <c r="FV1" s="58">
         <f>FF1+Parameters!$B$7</f>
         <v>129</v>
       </c>
-      <c r="FW1" s="57"/>
-      <c r="FX1" s="57"/>
-      <c r="FY1" s="57"/>
-      <c r="FZ1" s="57"/>
-      <c r="GA1" s="57"/>
-      <c r="GB1" s="57"/>
-      <c r="GC1" s="57"/>
-      <c r="GD1" s="57"/>
-      <c r="GE1" s="57"/>
-      <c r="GF1" s="57"/>
-      <c r="GG1" s="57"/>
-      <c r="GH1" s="57"/>
-      <c r="GI1" s="57"/>
-      <c r="GJ1" s="57"/>
-      <c r="GK1" s="57"/>
-      <c r="GL1" s="57">
+      <c r="FW1" s="58"/>
+      <c r="FX1" s="58"/>
+      <c r="FY1" s="58"/>
+      <c r="FZ1" s="58"/>
+      <c r="GA1" s="58"/>
+      <c r="GB1" s="58"/>
+      <c r="GC1" s="58"/>
+      <c r="GD1" s="58"/>
+      <c r="GE1" s="58"/>
+      <c r="GF1" s="58"/>
+      <c r="GG1" s="58"/>
+      <c r="GH1" s="58"/>
+      <c r="GI1" s="58"/>
+      <c r="GJ1" s="58"/>
+      <c r="GK1" s="58"/>
+      <c r="GL1" s="58">
         <f>FV1+Parameters!$B$7</f>
         <v>137</v>
       </c>
-      <c r="GM1" s="57"/>
-      <c r="GN1" s="57"/>
-      <c r="GO1" s="57"/>
-      <c r="GP1" s="57"/>
-      <c r="GQ1" s="57"/>
-      <c r="GR1" s="57"/>
-      <c r="GS1" s="57"/>
-      <c r="GT1" s="57"/>
-      <c r="GU1" s="57"/>
-      <c r="GV1" s="57"/>
-      <c r="GW1" s="57"/>
-      <c r="GX1" s="57"/>
-      <c r="GY1" s="57"/>
-      <c r="GZ1" s="57"/>
-      <c r="HA1" s="57"/>
-      <c r="HB1" s="57">
+      <c r="GM1" s="58"/>
+      <c r="GN1" s="58"/>
+      <c r="GO1" s="58"/>
+      <c r="GP1" s="58"/>
+      <c r="GQ1" s="58"/>
+      <c r="GR1" s="58"/>
+      <c r="GS1" s="58"/>
+      <c r="GT1" s="58"/>
+      <c r="GU1" s="58"/>
+      <c r="GV1" s="58"/>
+      <c r="GW1" s="58"/>
+      <c r="GX1" s="58"/>
+      <c r="GY1" s="58"/>
+      <c r="GZ1" s="58"/>
+      <c r="HA1" s="58"/>
+      <c r="HB1" s="58">
         <f>GL1+Parameters!$B$7</f>
         <v>145</v>
       </c>
-      <c r="HC1" s="57"/>
-      <c r="HD1" s="57"/>
-      <c r="HE1" s="57"/>
-      <c r="HF1" s="57"/>
-      <c r="HG1" s="57"/>
-      <c r="HH1" s="57"/>
-      <c r="HI1" s="57"/>
-      <c r="HJ1" s="57"/>
-      <c r="HK1" s="57"/>
-      <c r="HL1" s="57"/>
-      <c r="HM1" s="57"/>
-      <c r="HN1" s="57"/>
-      <c r="HO1" s="57"/>
-      <c r="HP1" s="57"/>
-      <c r="HQ1" s="57"/>
-      <c r="HR1" s="57">
+      <c r="HC1" s="58"/>
+      <c r="HD1" s="58"/>
+      <c r="HE1" s="58"/>
+      <c r="HF1" s="58"/>
+      <c r="HG1" s="58"/>
+      <c r="HH1" s="58"/>
+      <c r="HI1" s="58"/>
+      <c r="HJ1" s="58"/>
+      <c r="HK1" s="58"/>
+      <c r="HL1" s="58"/>
+      <c r="HM1" s="58"/>
+      <c r="HN1" s="58"/>
+      <c r="HO1" s="58"/>
+      <c r="HP1" s="58"/>
+      <c r="HQ1" s="58"/>
+      <c r="HR1" s="58">
         <f>HB1+Parameters!$B$7</f>
         <v>153</v>
       </c>
-      <c r="HS1" s="57"/>
-      <c r="HT1" s="57"/>
-      <c r="HU1" s="57"/>
-      <c r="HV1" s="57"/>
-      <c r="HW1" s="57"/>
-      <c r="HX1" s="57"/>
-      <c r="HY1" s="57"/>
-      <c r="HZ1" s="57"/>
-      <c r="IA1" s="57"/>
-      <c r="IB1" s="57"/>
-      <c r="IC1" s="57"/>
-      <c r="ID1" s="57"/>
-      <c r="IE1" s="57"/>
-      <c r="IF1" s="57"/>
-      <c r="IG1" s="57"/>
-      <c r="IH1" s="57">
+      <c r="HS1" s="58"/>
+      <c r="HT1" s="58"/>
+      <c r="HU1" s="58"/>
+      <c r="HV1" s="58"/>
+      <c r="HW1" s="58"/>
+      <c r="HX1" s="58"/>
+      <c r="HY1" s="58"/>
+      <c r="HZ1" s="58"/>
+      <c r="IA1" s="58"/>
+      <c r="IB1" s="58"/>
+      <c r="IC1" s="58"/>
+      <c r="ID1" s="58"/>
+      <c r="IE1" s="58"/>
+      <c r="IF1" s="58"/>
+      <c r="IG1" s="58"/>
+      <c r="IH1" s="58">
         <f>HR1+Parameters!$B$7</f>
         <v>161</v>
       </c>
-      <c r="II1" s="57"/>
-      <c r="IJ1" s="57"/>
-      <c r="IK1" s="57"/>
-      <c r="IL1" s="57"/>
-      <c r="IM1" s="57"/>
-      <c r="IN1" s="57"/>
-      <c r="IO1" s="57"/>
-      <c r="IP1" s="57"/>
-      <c r="IQ1" s="57"/>
-      <c r="IR1" s="57"/>
-      <c r="IS1" s="57"/>
-      <c r="IT1" s="57"/>
-      <c r="IU1" s="57"/>
-      <c r="IV1" s="57"/>
-      <c r="IW1" s="57"/>
+      <c r="II1" s="58"/>
+      <c r="IJ1" s="58"/>
+      <c r="IK1" s="58"/>
+      <c r="IL1" s="58"/>
+      <c r="IM1" s="58"/>
+      <c r="IN1" s="58"/>
+      <c r="IO1" s="58"/>
+      <c r="IP1" s="58"/>
+      <c r="IQ1" s="58"/>
+      <c r="IR1" s="58"/>
+      <c r="IS1" s="58"/>
+      <c r="IT1" s="58"/>
+      <c r="IU1" s="58"/>
+      <c r="IV1" s="58"/>
+      <c r="IW1" s="58"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="58">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57">
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="57"/>
-      <c r="BC2" s="57"/>
-      <c r="BD2" s="57"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="57"/>
-      <c r="BH2" s="57"/>
-      <c r="BI2" s="57"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="57"/>
-      <c r="BL2" s="57"/>
-      <c r="BM2" s="57"/>
-      <c r="BN2" s="57">
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="58"/>
+      <c r="BG2" s="58"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="58"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="58"/>
+      <c r="BM2" s="58"/>
+      <c r="BN2" s="58">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="57"/>
-      <c r="BQ2" s="57"/>
-      <c r="BR2" s="57"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="57"/>
-      <c r="BU2" s="57"/>
-      <c r="BV2" s="57"/>
-      <c r="BW2" s="57"/>
-      <c r="BX2" s="57"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="57"/>
-      <c r="CA2" s="57"/>
-      <c r="CB2" s="57"/>
-      <c r="CC2" s="57"/>
-      <c r="CD2" s="57">
+      <c r="BO2" s="58"/>
+      <c r="BP2" s="58"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="58"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="58"/>
+      <c r="CA2" s="58"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="58">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="57"/>
-      <c r="CF2" s="57"/>
-      <c r="CG2" s="57"/>
-      <c r="CH2" s="57"/>
-      <c r="CI2" s="57"/>
-      <c r="CJ2" s="57"/>
-      <c r="CK2" s="57"/>
-      <c r="CL2" s="57"/>
-      <c r="CM2" s="57"/>
-      <c r="CN2" s="57"/>
-      <c r="CO2" s="57"/>
-      <c r="CP2" s="57"/>
-      <c r="CQ2" s="57"/>
-      <c r="CR2" s="57"/>
-      <c r="CS2" s="57"/>
-      <c r="CT2" s="57">
+      <c r="CE2" s="58"/>
+      <c r="CF2" s="58"/>
+      <c r="CG2" s="58"/>
+      <c r="CH2" s="58"/>
+      <c r="CI2" s="58"/>
+      <c r="CJ2" s="58"/>
+      <c r="CK2" s="58"/>
+      <c r="CL2" s="58"/>
+      <c r="CM2" s="58"/>
+      <c r="CN2" s="58"/>
+      <c r="CO2" s="58"/>
+      <c r="CP2" s="58"/>
+      <c r="CQ2" s="58"/>
+      <c r="CR2" s="58"/>
+      <c r="CS2" s="58"/>
+      <c r="CT2" s="58">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="57"/>
-      <c r="CV2" s="57"/>
-      <c r="CW2" s="57"/>
-      <c r="CX2" s="57"/>
-      <c r="CY2" s="57"/>
-      <c r="CZ2" s="57"/>
-      <c r="DA2" s="57"/>
-      <c r="DB2" s="57"/>
-      <c r="DC2" s="57"/>
-      <c r="DD2" s="57"/>
-      <c r="DE2" s="57"/>
-      <c r="DF2" s="57"/>
-      <c r="DG2" s="57"/>
-      <c r="DH2" s="57"/>
-      <c r="DI2" s="57"/>
-      <c r="DJ2" s="57">
+      <c r="CU2" s="58"/>
+      <c r="CV2" s="58"/>
+      <c r="CW2" s="58"/>
+      <c r="CX2" s="58"/>
+      <c r="CY2" s="58"/>
+      <c r="CZ2" s="58"/>
+      <c r="DA2" s="58"/>
+      <c r="DB2" s="58"/>
+      <c r="DC2" s="58"/>
+      <c r="DD2" s="58"/>
+      <c r="DE2" s="58"/>
+      <c r="DF2" s="58"/>
+      <c r="DG2" s="58"/>
+      <c r="DH2" s="58"/>
+      <c r="DI2" s="58"/>
+      <c r="DJ2" s="58">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="57"/>
-      <c r="DL2" s="57"/>
-      <c r="DM2" s="57"/>
-      <c r="DN2" s="57"/>
-      <c r="DO2" s="57"/>
-      <c r="DP2" s="57"/>
-      <c r="DQ2" s="57"/>
-      <c r="DR2" s="57"/>
-      <c r="DS2" s="57"/>
-      <c r="DT2" s="57"/>
-      <c r="DU2" s="57"/>
-      <c r="DV2" s="57"/>
-      <c r="DW2" s="57"/>
-      <c r="DX2" s="57"/>
-      <c r="DY2" s="57"/>
-      <c r="DZ2" s="57">
+      <c r="DK2" s="58"/>
+      <c r="DL2" s="58"/>
+      <c r="DM2" s="58"/>
+      <c r="DN2" s="58"/>
+      <c r="DO2" s="58"/>
+      <c r="DP2" s="58"/>
+      <c r="DQ2" s="58"/>
+      <c r="DR2" s="58"/>
+      <c r="DS2" s="58"/>
+      <c r="DT2" s="58"/>
+      <c r="DU2" s="58"/>
+      <c r="DV2" s="58"/>
+      <c r="DW2" s="58"/>
+      <c r="DX2" s="58"/>
+      <c r="DY2" s="58"/>
+      <c r="DZ2" s="58">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="57"/>
-      <c r="EB2" s="57"/>
-      <c r="EC2" s="57"/>
-      <c r="ED2" s="57"/>
-      <c r="EE2" s="57"/>
-      <c r="EF2" s="57"/>
-      <c r="EG2" s="57"/>
-      <c r="EH2" s="57"/>
-      <c r="EI2" s="57"/>
-      <c r="EJ2" s="57"/>
-      <c r="EK2" s="57"/>
-      <c r="EL2" s="57"/>
-      <c r="EM2" s="57"/>
-      <c r="EN2" s="57"/>
-      <c r="EO2" s="57"/>
-      <c r="EP2" s="57">
+      <c r="EA2" s="58"/>
+      <c r="EB2" s="58"/>
+      <c r="EC2" s="58"/>
+      <c r="ED2" s="58"/>
+      <c r="EE2" s="58"/>
+      <c r="EF2" s="58"/>
+      <c r="EG2" s="58"/>
+      <c r="EH2" s="58"/>
+      <c r="EI2" s="58"/>
+      <c r="EJ2" s="58"/>
+      <c r="EK2" s="58"/>
+      <c r="EL2" s="58"/>
+      <c r="EM2" s="58"/>
+      <c r="EN2" s="58"/>
+      <c r="EO2" s="58"/>
+      <c r="EP2" s="58">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="57"/>
-      <c r="ER2" s="57"/>
-      <c r="ES2" s="57"/>
-      <c r="ET2" s="57"/>
-      <c r="EU2" s="57"/>
-      <c r="EV2" s="57"/>
-      <c r="EW2" s="57"/>
-      <c r="EX2" s="57"/>
-      <c r="EY2" s="57"/>
-      <c r="EZ2" s="57"/>
-      <c r="FA2" s="57"/>
-      <c r="FB2" s="57"/>
-      <c r="FC2" s="57"/>
-      <c r="FD2" s="57"/>
-      <c r="FE2" s="57"/>
-      <c r="FF2" s="57">
+      <c r="EQ2" s="58"/>
+      <c r="ER2" s="58"/>
+      <c r="ES2" s="58"/>
+      <c r="ET2" s="58"/>
+      <c r="EU2" s="58"/>
+      <c r="EV2" s="58"/>
+      <c r="EW2" s="58"/>
+      <c r="EX2" s="58"/>
+      <c r="EY2" s="58"/>
+      <c r="EZ2" s="58"/>
+      <c r="FA2" s="58"/>
+      <c r="FB2" s="58"/>
+      <c r="FC2" s="58"/>
+      <c r="FD2" s="58"/>
+      <c r="FE2" s="58"/>
+      <c r="FF2" s="58">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="57"/>
-      <c r="FH2" s="57"/>
-      <c r="FI2" s="57"/>
-      <c r="FJ2" s="57"/>
-      <c r="FK2" s="57"/>
-      <c r="FL2" s="57"/>
-      <c r="FM2" s="57"/>
-      <c r="FN2" s="57"/>
-      <c r="FO2" s="57"/>
-      <c r="FP2" s="57"/>
-      <c r="FQ2" s="57"/>
-      <c r="FR2" s="57"/>
-      <c r="FS2" s="57"/>
-      <c r="FT2" s="57"/>
-      <c r="FU2" s="57"/>
-      <c r="FV2" s="57">
+      <c r="FG2" s="58"/>
+      <c r="FH2" s="58"/>
+      <c r="FI2" s="58"/>
+      <c r="FJ2" s="58"/>
+      <c r="FK2" s="58"/>
+      <c r="FL2" s="58"/>
+      <c r="FM2" s="58"/>
+      <c r="FN2" s="58"/>
+      <c r="FO2" s="58"/>
+      <c r="FP2" s="58"/>
+      <c r="FQ2" s="58"/>
+      <c r="FR2" s="58"/>
+      <c r="FS2" s="58"/>
+      <c r="FT2" s="58"/>
+      <c r="FU2" s="58"/>
+      <c r="FV2" s="58">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="57"/>
-      <c r="FX2" s="57"/>
-      <c r="FY2" s="57"/>
-      <c r="FZ2" s="57"/>
-      <c r="GA2" s="57"/>
-      <c r="GB2" s="57"/>
-      <c r="GC2" s="57"/>
-      <c r="GD2" s="57"/>
-      <c r="GE2" s="57"/>
-      <c r="GF2" s="57"/>
-      <c r="GG2" s="57"/>
-      <c r="GH2" s="57"/>
-      <c r="GI2" s="57"/>
-      <c r="GJ2" s="57"/>
-      <c r="GK2" s="57"/>
-      <c r="GL2" s="57">
+      <c r="FW2" s="58"/>
+      <c r="FX2" s="58"/>
+      <c r="FY2" s="58"/>
+      <c r="FZ2" s="58"/>
+      <c r="GA2" s="58"/>
+      <c r="GB2" s="58"/>
+      <c r="GC2" s="58"/>
+      <c r="GD2" s="58"/>
+      <c r="GE2" s="58"/>
+      <c r="GF2" s="58"/>
+      <c r="GG2" s="58"/>
+      <c r="GH2" s="58"/>
+      <c r="GI2" s="58"/>
+      <c r="GJ2" s="58"/>
+      <c r="GK2" s="58"/>
+      <c r="GL2" s="58">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="57"/>
-      <c r="GN2" s="57"/>
-      <c r="GO2" s="57"/>
-      <c r="GP2" s="57"/>
-      <c r="GQ2" s="57"/>
-      <c r="GR2" s="57"/>
-      <c r="GS2" s="57"/>
-      <c r="GT2" s="57"/>
-      <c r="GU2" s="57"/>
-      <c r="GV2" s="57"/>
-      <c r="GW2" s="57"/>
-      <c r="GX2" s="57"/>
-      <c r="GY2" s="57"/>
-      <c r="GZ2" s="57"/>
-      <c r="HA2" s="57"/>
-      <c r="HB2" s="57">
+      <c r="GM2" s="58"/>
+      <c r="GN2" s="58"/>
+      <c r="GO2" s="58"/>
+      <c r="GP2" s="58"/>
+      <c r="GQ2" s="58"/>
+      <c r="GR2" s="58"/>
+      <c r="GS2" s="58"/>
+      <c r="GT2" s="58"/>
+      <c r="GU2" s="58"/>
+      <c r="GV2" s="58"/>
+      <c r="GW2" s="58"/>
+      <c r="GX2" s="58"/>
+      <c r="GY2" s="58"/>
+      <c r="GZ2" s="58"/>
+      <c r="HA2" s="58"/>
+      <c r="HB2" s="58">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="57"/>
-      <c r="HD2" s="57"/>
-      <c r="HE2" s="57"/>
-      <c r="HF2" s="57"/>
-      <c r="HG2" s="57"/>
-      <c r="HH2" s="57"/>
-      <c r="HI2" s="57"/>
-      <c r="HJ2" s="57"/>
-      <c r="HK2" s="57"/>
-      <c r="HL2" s="57"/>
-      <c r="HM2" s="57"/>
-      <c r="HN2" s="57"/>
-      <c r="HO2" s="57"/>
-      <c r="HP2" s="57"/>
-      <c r="HQ2" s="57"/>
-      <c r="HR2" s="57">
+      <c r="HC2" s="58"/>
+      <c r="HD2" s="58"/>
+      <c r="HE2" s="58"/>
+      <c r="HF2" s="58"/>
+      <c r="HG2" s="58"/>
+      <c r="HH2" s="58"/>
+      <c r="HI2" s="58"/>
+      <c r="HJ2" s="58"/>
+      <c r="HK2" s="58"/>
+      <c r="HL2" s="58"/>
+      <c r="HM2" s="58"/>
+      <c r="HN2" s="58"/>
+      <c r="HO2" s="58"/>
+      <c r="HP2" s="58"/>
+      <c r="HQ2" s="58"/>
+      <c r="HR2" s="58">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="57"/>
-      <c r="HT2" s="57"/>
-      <c r="HU2" s="57"/>
-      <c r="HV2" s="57"/>
-      <c r="HW2" s="57"/>
-      <c r="HX2" s="57"/>
-      <c r="HY2" s="57"/>
-      <c r="HZ2" s="57"/>
-      <c r="IA2" s="57"/>
-      <c r="IB2" s="57"/>
-      <c r="IC2" s="57"/>
-      <c r="ID2" s="57"/>
-      <c r="IE2" s="57"/>
-      <c r="IF2" s="57"/>
-      <c r="IG2" s="57"/>
-      <c r="IH2" s="57">
+      <c r="HS2" s="58"/>
+      <c r="HT2" s="58"/>
+      <c r="HU2" s="58"/>
+      <c r="HV2" s="58"/>
+      <c r="HW2" s="58"/>
+      <c r="HX2" s="58"/>
+      <c r="HY2" s="58"/>
+      <c r="HZ2" s="58"/>
+      <c r="IA2" s="58"/>
+      <c r="IB2" s="58"/>
+      <c r="IC2" s="58"/>
+      <c r="ID2" s="58"/>
+      <c r="IE2" s="58"/>
+      <c r="IF2" s="58"/>
+      <c r="IG2" s="58"/>
+      <c r="IH2" s="58">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="57"/>
-      <c r="IJ2" s="57"/>
-      <c r="IK2" s="57"/>
-      <c r="IL2" s="57"/>
-      <c r="IM2" s="57"/>
-      <c r="IN2" s="57"/>
-      <c r="IO2" s="57"/>
-      <c r="IP2" s="57"/>
-      <c r="IQ2" s="57"/>
-      <c r="IR2" s="57"/>
-      <c r="IS2" s="57"/>
-      <c r="IT2" s="57"/>
-      <c r="IU2" s="57"/>
-      <c r="IV2" s="57"/>
-      <c r="IW2" s="57"/>
+      <c r="II2" s="58"/>
+      <c r="IJ2" s="58"/>
+      <c r="IK2" s="58"/>
+      <c r="IL2" s="58"/>
+      <c r="IM2" s="58"/>
+      <c r="IN2" s="58"/>
+      <c r="IO2" s="58"/>
+      <c r="IP2" s="58"/>
+      <c r="IQ2" s="58"/>
+      <c r="IR2" s="58"/>
+      <c r="IS2" s="58"/>
+      <c r="IT2" s="58"/>
+      <c r="IU2" s="58"/>
+      <c r="IV2" s="58"/>
+      <c r="IW2" s="58"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>9</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="63">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="61">
         <v>9</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="63">
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="61">
         <v>9</v>
       </c>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="63">
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="61">
         <v>9</v>
       </c>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="64"/>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="63">
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="61">
         <v>17</v>
       </c>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
-      <c r="BU3" s="64"/>
-      <c r="BV3" s="64"/>
-      <c r="BW3" s="64"/>
-      <c r="BX3" s="64"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="64"/>
-      <c r="CA3" s="64"/>
-      <c r="CB3" s="64"/>
-      <c r="CC3" s="65"/>
-      <c r="CD3" s="63">
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="63"/>
+      <c r="CD3" s="61">
         <v>17</v>
       </c>
-      <c r="CE3" s="64"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="64"/>
-      <c r="CH3" s="64"/>
-      <c r="CI3" s="64"/>
-      <c r="CJ3" s="64"/>
-      <c r="CK3" s="64"/>
-      <c r="CL3" s="64"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="64"/>
-      <c r="CO3" s="64"/>
-      <c r="CP3" s="64"/>
-      <c r="CQ3" s="64"/>
-      <c r="CR3" s="64"/>
-      <c r="CS3" s="65"/>
-      <c r="CT3" s="63">
+      <c r="CE3" s="62"/>
+      <c r="CF3" s="62"/>
+      <c r="CG3" s="62"/>
+      <c r="CH3" s="62"/>
+      <c r="CI3" s="62"/>
+      <c r="CJ3" s="62"/>
+      <c r="CK3" s="62"/>
+      <c r="CL3" s="62"/>
+      <c r="CM3" s="62"/>
+      <c r="CN3" s="62"/>
+      <c r="CO3" s="62"/>
+      <c r="CP3" s="62"/>
+      <c r="CQ3" s="62"/>
+      <c r="CR3" s="62"/>
+      <c r="CS3" s="63"/>
+      <c r="CT3" s="61">
         <v>17</v>
       </c>
-      <c r="CU3" s="64"/>
-      <c r="CV3" s="64"/>
-      <c r="CW3" s="64"/>
-      <c r="CX3" s="64"/>
-      <c r="CY3" s="64"/>
-      <c r="CZ3" s="64"/>
-      <c r="DA3" s="64"/>
-      <c r="DB3" s="64"/>
-      <c r="DC3" s="64"/>
-      <c r="DD3" s="64"/>
-      <c r="DE3" s="64"/>
-      <c r="DF3" s="64"/>
-      <c r="DG3" s="64"/>
-      <c r="DH3" s="64"/>
-      <c r="DI3" s="65"/>
-      <c r="DJ3" s="63">
+      <c r="CU3" s="62"/>
+      <c r="CV3" s="62"/>
+      <c r="CW3" s="62"/>
+      <c r="CX3" s="62"/>
+      <c r="CY3" s="62"/>
+      <c r="CZ3" s="62"/>
+      <c r="DA3" s="62"/>
+      <c r="DB3" s="62"/>
+      <c r="DC3" s="62"/>
+      <c r="DD3" s="62"/>
+      <c r="DE3" s="62"/>
+      <c r="DF3" s="62"/>
+      <c r="DG3" s="62"/>
+      <c r="DH3" s="62"/>
+      <c r="DI3" s="63"/>
+      <c r="DJ3" s="61">
         <v>17</v>
       </c>
-      <c r="DK3" s="64"/>
-      <c r="DL3" s="64"/>
-      <c r="DM3" s="64"/>
-      <c r="DN3" s="64"/>
-      <c r="DO3" s="64"/>
-      <c r="DP3" s="64"/>
-      <c r="DQ3" s="64"/>
-      <c r="DR3" s="64"/>
-      <c r="DS3" s="64"/>
-      <c r="DT3" s="64"/>
-      <c r="DU3" s="64"/>
-      <c r="DV3" s="64"/>
-      <c r="DW3" s="64"/>
-      <c r="DX3" s="64"/>
-      <c r="DY3" s="65"/>
-      <c r="DZ3" s="66">
+      <c r="DK3" s="62"/>
+      <c r="DL3" s="62"/>
+      <c r="DM3" s="62"/>
+      <c r="DN3" s="62"/>
+      <c r="DO3" s="62"/>
+      <c r="DP3" s="62"/>
+      <c r="DQ3" s="62"/>
+      <c r="DR3" s="62"/>
+      <c r="DS3" s="62"/>
+      <c r="DT3" s="62"/>
+      <c r="DU3" s="62"/>
+      <c r="DV3" s="62"/>
+      <c r="DW3" s="62"/>
+      <c r="DX3" s="62"/>
+      <c r="DY3" s="63"/>
+      <c r="DZ3" s="64">
         <v>25</v>
       </c>
-      <c r="EA3" s="61"/>
-      <c r="EB3" s="61"/>
-      <c r="EC3" s="61"/>
-      <c r="ED3" s="61"/>
-      <c r="EE3" s="61"/>
-      <c r="EF3" s="61"/>
-      <c r="EG3" s="61"/>
-      <c r="EH3" s="61"/>
-      <c r="EI3" s="61"/>
-      <c r="EJ3" s="61"/>
-      <c r="EK3" s="61"/>
-      <c r="EL3" s="61"/>
-      <c r="EM3" s="61"/>
-      <c r="EN3" s="61"/>
-      <c r="EO3" s="62"/>
-      <c r="EP3" s="60">
+      <c r="EA3" s="65"/>
+      <c r="EB3" s="65"/>
+      <c r="EC3" s="65"/>
+      <c r="ED3" s="65"/>
+      <c r="EE3" s="65"/>
+      <c r="EF3" s="65"/>
+      <c r="EG3" s="65"/>
+      <c r="EH3" s="65"/>
+      <c r="EI3" s="65"/>
+      <c r="EJ3" s="65"/>
+      <c r="EK3" s="65"/>
+      <c r="EL3" s="65"/>
+      <c r="EM3" s="65"/>
+      <c r="EN3" s="65"/>
+      <c r="EO3" s="66"/>
+      <c r="EP3" s="67">
         <v>25</v>
       </c>
-      <c r="EQ3" s="61"/>
-      <c r="ER3" s="61"/>
-      <c r="ES3" s="61"/>
-      <c r="ET3" s="61"/>
-      <c r="EU3" s="61"/>
-      <c r="EV3" s="61"/>
-      <c r="EW3" s="61"/>
-      <c r="EX3" s="61"/>
-      <c r="EY3" s="61"/>
-      <c r="EZ3" s="61"/>
-      <c r="FA3" s="61"/>
-      <c r="FB3" s="61"/>
-      <c r="FC3" s="61"/>
-      <c r="FD3" s="61"/>
-      <c r="FE3" s="62"/>
-      <c r="FF3" s="60">
+      <c r="EQ3" s="65"/>
+      <c r="ER3" s="65"/>
+      <c r="ES3" s="65"/>
+      <c r="ET3" s="65"/>
+      <c r="EU3" s="65"/>
+      <c r="EV3" s="65"/>
+      <c r="EW3" s="65"/>
+      <c r="EX3" s="65"/>
+      <c r="EY3" s="65"/>
+      <c r="EZ3" s="65"/>
+      <c r="FA3" s="65"/>
+      <c r="FB3" s="65"/>
+      <c r="FC3" s="65"/>
+      <c r="FD3" s="65"/>
+      <c r="FE3" s="66"/>
+      <c r="FF3" s="67">
         <v>25</v>
       </c>
-      <c r="FG3" s="61"/>
-      <c r="FH3" s="61"/>
-      <c r="FI3" s="61"/>
-      <c r="FJ3" s="61"/>
-      <c r="FK3" s="61"/>
-      <c r="FL3" s="61"/>
-      <c r="FM3" s="61"/>
-      <c r="FN3" s="61"/>
-      <c r="FO3" s="61"/>
-      <c r="FP3" s="61"/>
-      <c r="FQ3" s="61"/>
-      <c r="FR3" s="61"/>
-      <c r="FS3" s="61"/>
-      <c r="FT3" s="61"/>
-      <c r="FU3" s="62"/>
-      <c r="FV3" s="60">
+      <c r="FG3" s="65"/>
+      <c r="FH3" s="65"/>
+      <c r="FI3" s="65"/>
+      <c r="FJ3" s="65"/>
+      <c r="FK3" s="65"/>
+      <c r="FL3" s="65"/>
+      <c r="FM3" s="65"/>
+      <c r="FN3" s="65"/>
+      <c r="FO3" s="65"/>
+      <c r="FP3" s="65"/>
+      <c r="FQ3" s="65"/>
+      <c r="FR3" s="65"/>
+      <c r="FS3" s="65"/>
+      <c r="FT3" s="65"/>
+      <c r="FU3" s="66"/>
+      <c r="FV3" s="67">
         <v>25</v>
       </c>
-      <c r="FW3" s="61"/>
-      <c r="FX3" s="61"/>
-      <c r="FY3" s="61"/>
-      <c r="FZ3" s="61"/>
-      <c r="GA3" s="61"/>
-      <c r="GB3" s="61"/>
-      <c r="GC3" s="61"/>
-      <c r="GD3" s="61"/>
-      <c r="GE3" s="61"/>
-      <c r="GF3" s="61"/>
-      <c r="GG3" s="61"/>
-      <c r="GH3" s="61"/>
-      <c r="GI3" s="61"/>
-      <c r="GJ3" s="61"/>
-      <c r="GK3" s="62"/>
-      <c r="GL3" s="60">
+      <c r="FW3" s="65"/>
+      <c r="FX3" s="65"/>
+      <c r="FY3" s="65"/>
+      <c r="FZ3" s="65"/>
+      <c r="GA3" s="65"/>
+      <c r="GB3" s="65"/>
+      <c r="GC3" s="65"/>
+      <c r="GD3" s="65"/>
+      <c r="GE3" s="65"/>
+      <c r="GF3" s="65"/>
+      <c r="GG3" s="65"/>
+      <c r="GH3" s="65"/>
+      <c r="GI3" s="65"/>
+      <c r="GJ3" s="65"/>
+      <c r="GK3" s="66"/>
+      <c r="GL3" s="67">
         <v>33</v>
       </c>
-      <c r="GM3" s="61"/>
-      <c r="GN3" s="61"/>
-      <c r="GO3" s="61"/>
-      <c r="GP3" s="61"/>
-      <c r="GQ3" s="61"/>
-      <c r="GR3" s="61"/>
-      <c r="GS3" s="61"/>
-      <c r="GT3" s="61"/>
-      <c r="GU3" s="61"/>
-      <c r="GV3" s="61"/>
-      <c r="GW3" s="61"/>
-      <c r="GX3" s="61"/>
-      <c r="GY3" s="61"/>
-      <c r="GZ3" s="61"/>
-      <c r="HA3" s="62"/>
-      <c r="HB3" s="60">
+      <c r="GM3" s="65"/>
+      <c r="GN3" s="65"/>
+      <c r="GO3" s="65"/>
+      <c r="GP3" s="65"/>
+      <c r="GQ3" s="65"/>
+      <c r="GR3" s="65"/>
+      <c r="GS3" s="65"/>
+      <c r="GT3" s="65"/>
+      <c r="GU3" s="65"/>
+      <c r="GV3" s="65"/>
+      <c r="GW3" s="65"/>
+      <c r="GX3" s="65"/>
+      <c r="GY3" s="65"/>
+      <c r="GZ3" s="65"/>
+      <c r="HA3" s="66"/>
+      <c r="HB3" s="67">
         <v>33</v>
       </c>
-      <c r="HC3" s="61"/>
-      <c r="HD3" s="61"/>
-      <c r="HE3" s="61"/>
-      <c r="HF3" s="61"/>
-      <c r="HG3" s="61"/>
-      <c r="HH3" s="61"/>
-      <c r="HI3" s="61"/>
-      <c r="HJ3" s="61"/>
-      <c r="HK3" s="61"/>
-      <c r="HL3" s="61"/>
-      <c r="HM3" s="61"/>
-      <c r="HN3" s="61"/>
-      <c r="HO3" s="61"/>
-      <c r="HP3" s="61"/>
-      <c r="HQ3" s="62"/>
-      <c r="HR3" s="60">
+      <c r="HC3" s="65"/>
+      <c r="HD3" s="65"/>
+      <c r="HE3" s="65"/>
+      <c r="HF3" s="65"/>
+      <c r="HG3" s="65"/>
+      <c r="HH3" s="65"/>
+      <c r="HI3" s="65"/>
+      <c r="HJ3" s="65"/>
+      <c r="HK3" s="65"/>
+      <c r="HL3" s="65"/>
+      <c r="HM3" s="65"/>
+      <c r="HN3" s="65"/>
+      <c r="HO3" s="65"/>
+      <c r="HP3" s="65"/>
+      <c r="HQ3" s="66"/>
+      <c r="HR3" s="67">
         <v>33</v>
       </c>
-      <c r="HS3" s="61"/>
-      <c r="HT3" s="61"/>
-      <c r="HU3" s="61"/>
-      <c r="HV3" s="61"/>
-      <c r="HW3" s="61"/>
-      <c r="HX3" s="61"/>
-      <c r="HY3" s="61"/>
-      <c r="HZ3" s="61"/>
-      <c r="IA3" s="61"/>
-      <c r="IB3" s="61"/>
-      <c r="IC3" s="61"/>
-      <c r="ID3" s="61"/>
-      <c r="IE3" s="61"/>
-      <c r="IF3" s="61"/>
-      <c r="IG3" s="62"/>
-      <c r="IH3" s="60">
+      <c r="HS3" s="65"/>
+      <c r="HT3" s="65"/>
+      <c r="HU3" s="65"/>
+      <c r="HV3" s="65"/>
+      <c r="HW3" s="65"/>
+      <c r="HX3" s="65"/>
+      <c r="HY3" s="65"/>
+      <c r="HZ3" s="65"/>
+      <c r="IA3" s="65"/>
+      <c r="IB3" s="65"/>
+      <c r="IC3" s="65"/>
+      <c r="ID3" s="65"/>
+      <c r="IE3" s="65"/>
+      <c r="IF3" s="65"/>
+      <c r="IG3" s="66"/>
+      <c r="IH3" s="67">
         <v>33</v>
       </c>
-      <c r="II3" s="61"/>
-      <c r="IJ3" s="61"/>
-      <c r="IK3" s="61"/>
-      <c r="IL3" s="61"/>
-      <c r="IM3" s="61"/>
-      <c r="IN3" s="61"/>
-      <c r="IO3" s="61"/>
-      <c r="IP3" s="61"/>
-      <c r="IQ3" s="61"/>
-      <c r="IR3" s="61"/>
-      <c r="IS3" s="61"/>
-      <c r="IT3" s="61"/>
-      <c r="IU3" s="61"/>
-      <c r="IV3" s="61"/>
-      <c r="IW3" s="62"/>
+      <c r="II3" s="65"/>
+      <c r="IJ3" s="65"/>
+      <c r="IK3" s="65"/>
+      <c r="IL3" s="65"/>
+      <c r="IM3" s="65"/>
+      <c r="IN3" s="65"/>
+      <c r="IO3" s="65"/>
+      <c r="IP3" s="65"/>
+      <c r="IQ3" s="65"/>
+      <c r="IR3" s="65"/>
+      <c r="IS3" s="65"/>
+      <c r="IT3" s="65"/>
+      <c r="IU3" s="65"/>
+      <c r="IV3" s="65"/>
+      <c r="IW3" s="66"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="58" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="59" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="58" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="59" t="s">
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="58" t="s">
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="59" t="s">
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="58" t="s">
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="58"/>
-      <c r="BT4" s="58"/>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="59" t="s">
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="58" t="s">
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="58"/>
-      <c r="CH4" s="58"/>
-      <c r="CI4" s="58"/>
-      <c r="CJ4" s="58"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="59" t="s">
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="59"/>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59"/>
-      <c r="CT4" s="58" t="s">
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="CU4" s="58"/>
-      <c r="CV4" s="58"/>
-      <c r="CW4" s="58"/>
-      <c r="CX4" s="58"/>
-      <c r="CY4" s="58"/>
-      <c r="CZ4" s="58"/>
-      <c r="DA4" s="58"/>
-      <c r="DB4" s="59" t="s">
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="59"/>
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="59"/>
+      <c r="DA4" s="59"/>
+      <c r="DB4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="DC4" s="59"/>
-      <c r="DD4" s="59"/>
-      <c r="DE4" s="59"/>
-      <c r="DF4" s="59"/>
-      <c r="DG4" s="59"/>
-      <c r="DH4" s="59"/>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="58" t="s">
+      <c r="DC4" s="60"/>
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="DK4" s="58"/>
-      <c r="DL4" s="58"/>
-      <c r="DM4" s="58"/>
-      <c r="DN4" s="58"/>
-      <c r="DO4" s="58"/>
-      <c r="DP4" s="58"/>
-      <c r="DQ4" s="58"/>
-      <c r="DR4" s="59" t="s">
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="59"/>
+      <c r="DO4" s="59"/>
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="59"/>
+      <c r="DR4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="DS4" s="59"/>
-      <c r="DT4" s="59"/>
-      <c r="DU4" s="59"/>
-      <c r="DV4" s="59"/>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="59"/>
-      <c r="DY4" s="59"/>
-      <c r="DZ4" s="58" t="s">
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="60"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="60"/>
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="EA4" s="58"/>
-      <c r="EB4" s="58"/>
-      <c r="EC4" s="58"/>
-      <c r="ED4" s="58"/>
-      <c r="EE4" s="58"/>
-      <c r="EF4" s="58"/>
-      <c r="EG4" s="58"/>
-      <c r="EH4" s="59" t="s">
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="59"/>
+      <c r="EC4" s="59"/>
+      <c r="ED4" s="59"/>
+      <c r="EE4" s="59"/>
+      <c r="EF4" s="59"/>
+      <c r="EG4" s="59"/>
+      <c r="EH4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="EI4" s="59"/>
-      <c r="EJ4" s="59"/>
-      <c r="EK4" s="59"/>
-      <c r="EL4" s="59"/>
-      <c r="EM4" s="59"/>
-      <c r="EN4" s="59"/>
-      <c r="EO4" s="59"/>
-      <c r="EP4" s="58" t="s">
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="60"/>
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="60"/>
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="60"/>
+      <c r="EP4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="EQ4" s="58"/>
-      <c r="ER4" s="58"/>
-      <c r="ES4" s="58"/>
-      <c r="ET4" s="58"/>
-      <c r="EU4" s="58"/>
-      <c r="EV4" s="58"/>
-      <c r="EW4" s="58"/>
-      <c r="EX4" s="59" t="s">
+      <c r="EQ4" s="59"/>
+      <c r="ER4" s="59"/>
+      <c r="ES4" s="59"/>
+      <c r="ET4" s="59"/>
+      <c r="EU4" s="59"/>
+      <c r="EV4" s="59"/>
+      <c r="EW4" s="59"/>
+      <c r="EX4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="EY4" s="59"/>
-      <c r="EZ4" s="59"/>
-      <c r="FA4" s="59"/>
-      <c r="FB4" s="59"/>
-      <c r="FC4" s="59"/>
-      <c r="FD4" s="59"/>
-      <c r="FE4" s="59"/>
-      <c r="FF4" s="58" t="s">
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="60"/>
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="60"/>
+      <c r="FF4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="58"/>
-      <c r="FH4" s="58"/>
-      <c r="FI4" s="58"/>
-      <c r="FJ4" s="58"/>
-      <c r="FK4" s="58"/>
-      <c r="FL4" s="58"/>
-      <c r="FM4" s="58"/>
-      <c r="FN4" s="59" t="s">
+      <c r="FG4" s="59"/>
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="59"/>
+      <c r="FK4" s="59"/>
+      <c r="FL4" s="59"/>
+      <c r="FM4" s="59"/>
+      <c r="FN4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="59"/>
-      <c r="FP4" s="59"/>
-      <c r="FQ4" s="59"/>
-      <c r="FR4" s="59"/>
-      <c r="FS4" s="59"/>
-      <c r="FT4" s="59"/>
-      <c r="FU4" s="59"/>
-      <c r="FV4" s="58" t="s">
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="60"/>
+      <c r="FT4" s="60"/>
+      <c r="FU4" s="60"/>
+      <c r="FV4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="FW4" s="58"/>
-      <c r="FX4" s="58"/>
-      <c r="FY4" s="58"/>
-      <c r="FZ4" s="58"/>
-      <c r="GA4" s="58"/>
-      <c r="GB4" s="58"/>
-      <c r="GC4" s="58"/>
-      <c r="GD4" s="59" t="s">
+      <c r="FW4" s="59"/>
+      <c r="FX4" s="59"/>
+      <c r="FY4" s="59"/>
+      <c r="FZ4" s="59"/>
+      <c r="GA4" s="59"/>
+      <c r="GB4" s="59"/>
+      <c r="GC4" s="59"/>
+      <c r="GD4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="GE4" s="59"/>
-      <c r="GF4" s="59"/>
-      <c r="GG4" s="59"/>
-      <c r="GH4" s="59"/>
-      <c r="GI4" s="59"/>
-      <c r="GJ4" s="59"/>
-      <c r="GK4" s="59"/>
-      <c r="GL4" s="58" t="s">
+      <c r="GE4" s="60"/>
+      <c r="GF4" s="60"/>
+      <c r="GG4" s="60"/>
+      <c r="GH4" s="60"/>
+      <c r="GI4" s="60"/>
+      <c r="GJ4" s="60"/>
+      <c r="GK4" s="60"/>
+      <c r="GL4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="GM4" s="58"/>
-      <c r="GN4" s="58"/>
-      <c r="GO4" s="58"/>
-      <c r="GP4" s="58"/>
-      <c r="GQ4" s="58"/>
-      <c r="GR4" s="58"/>
-      <c r="GS4" s="58"/>
-      <c r="GT4" s="59" t="s">
+      <c r="GM4" s="59"/>
+      <c r="GN4" s="59"/>
+      <c r="GO4" s="59"/>
+      <c r="GP4" s="59"/>
+      <c r="GQ4" s="59"/>
+      <c r="GR4" s="59"/>
+      <c r="GS4" s="59"/>
+      <c r="GT4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="GU4" s="59"/>
-      <c r="GV4" s="59"/>
-      <c r="GW4" s="59"/>
-      <c r="GX4" s="59"/>
-      <c r="GY4" s="59"/>
-      <c r="GZ4" s="59"/>
-      <c r="HA4" s="59"/>
-      <c r="HB4" s="58" t="s">
+      <c r="GU4" s="60"/>
+      <c r="GV4" s="60"/>
+      <c r="GW4" s="60"/>
+      <c r="GX4" s="60"/>
+      <c r="GY4" s="60"/>
+      <c r="GZ4" s="60"/>
+      <c r="HA4" s="60"/>
+      <c r="HB4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="HC4" s="58"/>
-      <c r="HD4" s="58"/>
-      <c r="HE4" s="58"/>
-      <c r="HF4" s="58"/>
-      <c r="HG4" s="58"/>
-      <c r="HH4" s="58"/>
-      <c r="HI4" s="58"/>
-      <c r="HJ4" s="59" t="s">
+      <c r="HC4" s="59"/>
+      <c r="HD4" s="59"/>
+      <c r="HE4" s="59"/>
+      <c r="HF4" s="59"/>
+      <c r="HG4" s="59"/>
+      <c r="HH4" s="59"/>
+      <c r="HI4" s="59"/>
+      <c r="HJ4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="HK4" s="59"/>
-      <c r="HL4" s="59"/>
-      <c r="HM4" s="59"/>
-      <c r="HN4" s="59"/>
-      <c r="HO4" s="59"/>
-      <c r="HP4" s="59"/>
-      <c r="HQ4" s="59"/>
-      <c r="HR4" s="58" t="s">
+      <c r="HK4" s="60"/>
+      <c r="HL4" s="60"/>
+      <c r="HM4" s="60"/>
+      <c r="HN4" s="60"/>
+      <c r="HO4" s="60"/>
+      <c r="HP4" s="60"/>
+      <c r="HQ4" s="60"/>
+      <c r="HR4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="HS4" s="58"/>
-      <c r="HT4" s="58"/>
-      <c r="HU4" s="58"/>
-      <c r="HV4" s="58"/>
-      <c r="HW4" s="58"/>
-      <c r="HX4" s="58"/>
-      <c r="HY4" s="58"/>
-      <c r="HZ4" s="59" t="s">
+      <c r="HS4" s="59"/>
+      <c r="HT4" s="59"/>
+      <c r="HU4" s="59"/>
+      <c r="HV4" s="59"/>
+      <c r="HW4" s="59"/>
+      <c r="HX4" s="59"/>
+      <c r="HY4" s="59"/>
+      <c r="HZ4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="IA4" s="59"/>
-      <c r="IB4" s="59"/>
-      <c r="IC4" s="59"/>
-      <c r="ID4" s="59"/>
-      <c r="IE4" s="59"/>
-      <c r="IF4" s="59"/>
-      <c r="IG4" s="59"/>
-      <c r="IH4" s="58" t="s">
+      <c r="IA4" s="60"/>
+      <c r="IB4" s="60"/>
+      <c r="IC4" s="60"/>
+      <c r="ID4" s="60"/>
+      <c r="IE4" s="60"/>
+      <c r="IF4" s="60"/>
+      <c r="IG4" s="60"/>
+      <c r="IH4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="II4" s="58"/>
-      <c r="IJ4" s="58"/>
-      <c r="IK4" s="58"/>
-      <c r="IL4" s="58"/>
-      <c r="IM4" s="58"/>
-      <c r="IN4" s="58"/>
-      <c r="IO4" s="58"/>
-      <c r="IP4" s="59" t="s">
+      <c r="II4" s="59"/>
+      <c r="IJ4" s="59"/>
+      <c r="IK4" s="59"/>
+      <c r="IL4" s="59"/>
+      <c r="IM4" s="59"/>
+      <c r="IN4" s="59"/>
+      <c r="IO4" s="59"/>
+      <c r="IP4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="IQ4" s="59"/>
-      <c r="IR4" s="59"/>
-      <c r="IS4" s="59"/>
-      <c r="IT4" s="59"/>
-      <c r="IU4" s="59"/>
-      <c r="IV4" s="59"/>
-      <c r="IW4" s="59"/>
+      <c r="IQ4" s="60"/>
+      <c r="IR4" s="60"/>
+      <c r="IS4" s="60"/>
+      <c r="IT4" s="60"/>
+      <c r="IU4" s="60"/>
+      <c r="IV4" s="60"/>
+      <c r="IW4" s="60"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -32953,41 +33771,35 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="CT4:DA4"/>
-    <mergeCell ref="DB4:DI4"/>
-    <mergeCell ref="DJ4:DQ4"/>
-    <mergeCell ref="DR4:DY4"/>
-    <mergeCell ref="DZ4:EG4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="FV4:GC4"/>
-    <mergeCell ref="GD4:GK4"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="HB2:HQ2"/>
+    <mergeCell ref="HR2:IG2"/>
+    <mergeCell ref="IH2:IW2"/>
+    <mergeCell ref="DZ2:EO2"/>
+    <mergeCell ref="EP2:FE2"/>
+    <mergeCell ref="FF2:FU2"/>
+    <mergeCell ref="FV2:GK2"/>
+    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD2:CS2"/>
+    <mergeCell ref="CT2:DI2"/>
+    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="IH3:IW3"/>
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="BN1:CC1"/>
+    <mergeCell ref="CD1:CS1"/>
+    <mergeCell ref="CT1:DI1"/>
+    <mergeCell ref="DJ1:DY1"/>
+    <mergeCell ref="DZ1:EO1"/>
+    <mergeCell ref="EP1:FE1"/>
+    <mergeCell ref="FF1:FU1"/>
+    <mergeCell ref="FV1:GK1"/>
+    <mergeCell ref="GL1:HA1"/>
+    <mergeCell ref="HB1:HQ1"/>
+    <mergeCell ref="HR1:IG1"/>
+    <mergeCell ref="IH1:IW1"/>
+    <mergeCell ref="AH2:AW2"/>
     <mergeCell ref="HZ4:IG4"/>
     <mergeCell ref="IH4:IO4"/>
     <mergeCell ref="IP4:IW4"/>
@@ -33004,35 +33816,41 @@
     <mergeCell ref="GL3:HA3"/>
     <mergeCell ref="HB3:HQ3"/>
     <mergeCell ref="HR3:IG3"/>
-    <mergeCell ref="IH3:IW3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="BN1:CC1"/>
-    <mergeCell ref="CD1:CS1"/>
-    <mergeCell ref="CT1:DI1"/>
-    <mergeCell ref="DJ1:DY1"/>
-    <mergeCell ref="DZ1:EO1"/>
-    <mergeCell ref="EP1:FE1"/>
-    <mergeCell ref="FF1:FU1"/>
-    <mergeCell ref="FV1:GK1"/>
-    <mergeCell ref="GL1:HA1"/>
-    <mergeCell ref="HB1:HQ1"/>
-    <mergeCell ref="HR1:IG1"/>
-    <mergeCell ref="IH1:IW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD2:CS2"/>
-    <mergeCell ref="CT2:DI2"/>
-    <mergeCell ref="DJ2:DY2"/>
-    <mergeCell ref="HB2:HQ2"/>
-    <mergeCell ref="HR2:IG2"/>
-    <mergeCell ref="IH2:IW2"/>
-    <mergeCell ref="DZ2:EO2"/>
-    <mergeCell ref="EP2:FE2"/>
-    <mergeCell ref="FF2:FU2"/>
-    <mergeCell ref="FV2:GK2"/>
-    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="FV4:GC4"/>
+    <mergeCell ref="GD4:GK4"/>
+    <mergeCell ref="DJ4:DQ4"/>
+    <mergeCell ref="DR4:DY4"/>
+    <mergeCell ref="DZ4:EG4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="CT4:DA4"/>
+    <mergeCell ref="DB4:DI4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33630,10 +34448,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33729,6 +34547,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
